--- a/ecYaliGEM/output/enzymeUsage vs FSEOF.xlsx
+++ b/ecYaliGEM/output/enzymeUsage vs FSEOF.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jusabe\Documents\GECKO\ecYaliGEM\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ECDCB8-94DF-42F6-BEBE-18F192312CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F8DD06-9CEB-4059-8E40-0F294F8ECF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2400" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ecYali" sheetId="1" r:id="rId1"/>
     <sheet name="ecYali_Nlim" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
-    <sheet name="iYali" sheetId="5" r:id="rId4"/>
-    <sheet name="NGAM plot" sheetId="2" r:id="rId5"/>
-    <sheet name="prot_pool plot" sheetId="4" r:id="rId6"/>
+    <sheet name="iYali" sheetId="5" r:id="rId3"/>
+    <sheet name="NGAM plot" sheetId="2" r:id="rId4"/>
+    <sheet name="prot_pool plot" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="880">
   <si>
     <t>'y000027'</t>
   </si>
@@ -2672,16 +2671,26 @@
   </si>
   <si>
     <t>y000907_EXP_1'</t>
+  </si>
+  <si>
+    <t>Q6C3Z9'</t>
+  </si>
+  <si>
+    <t>y000111'</t>
+  </si>
+  <si>
+    <t>Q6C1X5'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -2771,7 +2780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2804,6 +2813,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2846,7 +2856,12 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -2855,12 +2870,7 @@
       <numFmt numFmtId="165" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -5206,6 +5216,539 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ecYali (generic) simulations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'prot_pool plot'!$D$18:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.23150023150023127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25565430762641872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27980838375260614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30396245987879356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32811653600498097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35227061213116845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37642468825735587</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40057876438354328</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42473284050972959</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44888691663591701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47304099276210443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49719506888829185</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52134914501447926</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54550322114066674</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5696572972668541</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59381137339304157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'prot_pool plot'!$E$18:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0E+00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.3457164409083401E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4988631091477602E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.65864406400896E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.81788879572254E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9811512714768301E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1413243694823899E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.30461132894369E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4714801734404003E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6377296230064601E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8039790725525702E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9737671375053102E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1412025412970298E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3086379450940198E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4730108493346802E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9418278341635699E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5692457080299298E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B24-4F89-B71D-2317B6126669}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="47624192"/>
+        <c:axId val="1730146080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="47624192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Ysx</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1730146080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1730146080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Specific</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> lipid production (mmol/g</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="-25000"/>
+                  <a:t>DCW</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t>.h)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47624192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5247,6 +5790,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6318,6 +6901,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6399,6 +7498,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071AC44C-ACE9-94CB-F835-5F2BA9D6F8F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6444,13 +7579,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C6AE83F6-0BCA-4846-8A86-50B0E87B7071}" name="Tabela4" displayName="Tabela4" ref="A2:H29" totalsRowShown="0">
-  <autoFilter ref="A2:H29" xr:uid="{C6AE83F6-0BCA-4846-8A86-50B0E87B7071}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:H29" xr:uid="{C6AE83F6-0BCA-4846-8A86-50B0E87B7071}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H29">
     <sortCondition ref="C2:C29"/>
   </sortState>
@@ -6523,14 +7652,14 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{4905A0A7-9CA0-4B61-A17A-A60AA93CFAF9}" name="protID"/>
     <tableColumn id="2" xr3:uid="{07CE7141-993F-4265-ADA2-1D7AE02E2331}" name="geneID"/>
-    <tableColumn id="3" xr3:uid="{DD485713-254D-456F-A6A4-FF80A9F2504A}" name="absUsage" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{6ED1EEFA-F296-4FEE-8090-465370BDD4EB}" name="percUsage" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{8EF813D8-C987-4BEE-BB29-271B2A5ADA14}" name="kcat" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{DD485713-254D-456F-A6A4-FF80A9F2504A}" name="absUsage" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{6ED1EEFA-F296-4FEE-8090-465370BDD4EB}" name="percUsage" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{8EF813D8-C987-4BEE-BB29-271B2A5ADA14}" name="kcat" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{E9482A6E-4578-462E-B118-408E2D0DD4F9}" name="sorce"/>
     <tableColumn id="7" xr3:uid="{3318B392-664A-4D18-A77D-DFA08B424AEA}" name="rxnID"/>
     <tableColumn id="8" xr3:uid="{54DDE929-E8C8-4736-9AD2-5FD58FCAE634}" name="rxnNames"/>
     <tableColumn id="9" xr3:uid="{44B3321F-81D2-4832-A9C4-ED4925AE4EEB}" name="grRules"/>
-    <tableColumn id="10" xr3:uid="{0A4F1D80-C65F-4E35-8820-A1CCE3DCC85B}" name="FSEOF?" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{0A4F1D80-C65F-4E35-8820-A1CCE3DCC85B}" name="FSEOF?" dataDxfId="6">
       <calculatedColumnFormula>COUNTIF(Tabela5[rxnID],G83)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{84091260-CE60-469A-9EF2-267494370C4C}" name="Full capacity?">
@@ -6832,7 +7961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA156"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -13591,8 +14720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD147150-DDDE-4176-9567-786D2C29D3F7}">
   <dimension ref="A1:Q105"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView topLeftCell="H16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13666,8 +14795,8 @@
       <c r="B3" t="s">
         <v>85</v>
       </c>
-      <c r="C3" t="s">
-        <v>86</v>
+      <c r="C3" s="3" t="s">
+        <v>875</v>
       </c>
       <c r="D3" t="s">
         <v>87</v>
@@ -13714,8 +14843,8 @@
       <c r="B4" t="s">
         <v>89</v>
       </c>
-      <c r="C4" t="s">
-        <v>86</v>
+      <c r="C4" s="3" t="s">
+        <v>875</v>
       </c>
       <c r="D4" t="s">
         <v>87</v>
@@ -14047,15 +15176,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
-        <v>12</v>
+      <c r="C15" s="3" t="s">
+        <v>879</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -14071,10 +15200,10 @@
       </c>
       <c r="H15">
         <f>COUNTIF($K$4:$K$5,Tabela4[[#This Row],[protID]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -14101,7 +15230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -14128,7 +15257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -14155,7 +15284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>209</v>
       </c>
@@ -14183,14 +15312,14 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>24</v>
+      <c r="A20" s="3" t="s">
+        <v>878</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
-        <v>26</v>
+      <c r="C20" s="3" t="s">
+        <v>877</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -16385,163 +17514,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84BD11D-D0CD-411C-ADEC-58DC597399F3}">
-  <dimension ref="A1:L19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4">
-        <v>4.7417790265767701E-3</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3.09500869934083E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5">
-        <v>5.6901348318921302E-3</v>
-      </c>
-      <c r="C5" s="6">
-        <v>3.71435635208402E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6">
-        <v>6.6384906372074799E-3</v>
-      </c>
-      <c r="C6" s="6">
-        <v>4.3337040048175302E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7">
-        <v>7.5868464425228399E-3</v>
-      </c>
-      <c r="C7" s="6">
-        <v>4.9530516575521401E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8">
-        <v>8.5352022478381896E-3</v>
-      </c>
-      <c r="C8" s="6">
-        <v>5.5723993102942799E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9">
-        <v>9.4835580531535402E-3</v>
-      </c>
-      <c r="C9" s="6">
-        <v>6.1919656017536695E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10">
-        <v>1.0431913858468899E-2</v>
-      </c>
-      <c r="C10" s="6">
-        <v>6.8123626098722195E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="B11">
-        <v>1.13802696637843E-2</v>
-      </c>
-      <c r="C11" s="6">
-        <v>7.4248103026877595E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12">
-        <v>1.23286254690996E-2</v>
-      </c>
-      <c r="C12" s="6">
-        <v>7.8936558082373206E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13">
-        <v>1.3276981274415E-2</v>
-      </c>
-      <c r="C13" s="6">
-        <v>8.4452725478798994E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14">
-        <v>1.42253370797303E-2</v>
-      </c>
-      <c r="C14" s="6">
-        <v>9.0552198703544405E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15">
-        <v>1.5173692885045701E-2</v>
-      </c>
-      <c r="C15" s="6">
-        <v>9.6651790669485701E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16">
-        <v>1.6122048690361001E-2</v>
-      </c>
-      <c r="C16">
-        <v>1.02751382635302E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17">
-        <v>1.70704044956764E-2</v>
-      </c>
-      <c r="C17">
-        <v>1.08853621455825E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18">
-        <v>1.8018760300991699E-2</v>
-      </c>
-      <c r="C18">
-        <v>1.14956658016229E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19">
-        <v>1.8967116106307101E-2</v>
-      </c>
-      <c r="C19">
-        <v>1.21059694576273E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643171A4-4CC4-44B6-8A09-51199A818DEA}">
   <dimension ref="A1:J62"/>
   <sheetViews>
@@ -17938,7 +18910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D90E3B-8D28-4790-BCAD-AF23A4BA39F8}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -18299,12 +19271,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712D4235-63CA-46AD-95AB-3CF58DD6FAD4}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18812,6 +19784,134 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="4:5">
+      <c r="D18">
+        <v>0.23150023150023127</v>
+      </c>
+      <c r="E18" s="24">
+        <v>2.3457164409083401E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19">
+        <v>0.25565430762641872</v>
+      </c>
+      <c r="E19" s="24">
+        <v>2.4988631091477602E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20">
+        <v>0.27980838375260614</v>
+      </c>
+      <c r="E20" s="24">
+        <v>2.65864406400896E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21">
+        <v>0.30396245987879356</v>
+      </c>
+      <c r="E21" s="24">
+        <v>2.81788879572254E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22">
+        <v>0.32811653600498097</v>
+      </c>
+      <c r="E22" s="24">
+        <v>2.9811512714768301E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23">
+        <v>0.35227061213116845</v>
+      </c>
+      <c r="E23" s="24">
+        <v>3.1413243694823899E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24">
+        <v>0.37642468825735587</v>
+      </c>
+      <c r="E24" s="24">
+        <v>3.30461132894369E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25">
+        <v>0.40057876438354328</v>
+      </c>
+      <c r="E25" s="24">
+        <v>3.4714801734404003E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26">
+        <v>0.42473284050972959</v>
+      </c>
+      <c r="E26" s="24">
+        <v>3.6377296230064601E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27">
+        <v>0.44888691663591701</v>
+      </c>
+      <c r="E27" s="24">
+        <v>3.8039790725525702E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28">
+        <v>0.47304099276210443</v>
+      </c>
+      <c r="E28" s="24">
+        <v>3.9737671375053102E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29">
+        <v>0.49719506888829185</v>
+      </c>
+      <c r="E29" s="24">
+        <v>4.1412025412970298E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30">
+        <v>0.52134914501447926</v>
+      </c>
+      <c r="E30" s="24">
+        <v>4.3086379450940198E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31">
+        <v>0.54550322114066674</v>
+      </c>
+      <c r="E31" s="24">
+        <v>4.4730108493346802E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32">
+        <v>0.5696572972668541</v>
+      </c>
+      <c r="E32" s="24">
+        <v>3.9418278341635699E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33">
+        <v>0.59381137339304157</v>
+      </c>
+      <c r="E33" s="24">
+        <v>3.5692457080299298E-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/ecYaliGEM/output/enzymeUsage vs FSEOF.xlsx
+++ b/ecYaliGEM/output/enzymeUsage vs FSEOF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jujum\OneDrive\Documentos\GitHub\GECKO\ecYaliGEM\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jusabe\Documents\GECKO\ecYaliGEM\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100F1843-FDCE-44B1-AE7D-C9ED553EC8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4000D30-67C9-40C2-8FE3-5B9B58A7EACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3650" yWindow="14290" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ecYali" sheetId="1" r:id="rId1"/>
@@ -5638,6 +5638,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5649,16 +5659,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5806,7 +5806,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6892,7 +6892,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8068,7 +8068,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10863,37 +10863,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>642</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="K1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="K1" s="27" t="s">
         <v>643</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="U1" s="24" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="U1" s="28" t="s">
         <v>847</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -16485,14 +16485,14 @@
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A105" s="21" t="s">
+      <c r="A105" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -17625,16 +17625,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>642</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -17661,15 +17661,15 @@
       <c r="H2" t="s">
         <v>423</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="28" t="s">
         <v>873</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -18466,15 +18466,15 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -19469,19 +19469,19 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="27" t="s">
         <v>802</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -20400,7 +20400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643171A4-4CC4-44B6-8A09-51199A818DEA}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -20417,16 +20417,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>637</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -22158,8 +22158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712D4235-63CA-46AD-95AB-3CF58DD6FAD4}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F17" sqref="C17:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27822,10 +27822,10 @@
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="25" t="s">
+      <c r="A280" s="21" t="s">
         <v>1506</v>
       </c>
-      <c r="B280" s="25" t="s">
+      <c r="B280" s="21" t="s">
         <v>1574</v>
       </c>
       <c r="C280" t="s">
@@ -27839,7 +27839,7 @@
       <c r="B281" t="s">
         <v>451</v>
       </c>
-      <c r="C281" s="26">
+      <c r="C281" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -27850,7 +27850,7 @@
       <c r="B282" t="s">
         <v>890</v>
       </c>
-      <c r="C282" s="26">
+      <c r="C282" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -27861,7 +27861,7 @@
       <c r="B283" t="s">
         <v>887</v>
       </c>
-      <c r="C283" s="26">
+      <c r="C283" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -27872,7 +27872,7 @@
       <c r="B284" t="s">
         <v>793</v>
       </c>
-      <c r="C284" s="26">
+      <c r="C284" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -27883,7 +27883,7 @@
       <c r="B285" t="s">
         <v>47</v>
       </c>
-      <c r="C285" s="26">
+      <c r="C285" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -27894,7 +27894,7 @@
       <c r="B286" t="s">
         <v>320</v>
       </c>
-      <c r="C286" s="26">
+      <c r="C286" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -27905,7 +27905,7 @@
       <c r="B287" t="s">
         <v>373</v>
       </c>
-      <c r="C287" s="26">
+      <c r="C287" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -27916,7 +27916,7 @@
       <c r="B288" t="s">
         <v>373</v>
       </c>
-      <c r="C288" s="26">
+      <c r="C288" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -27927,7 +27927,7 @@
       <c r="B289" t="s">
         <v>47</v>
       </c>
-      <c r="C289" s="26">
+      <c r="C289" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -27938,7 +27938,7 @@
       <c r="B290" t="s">
         <v>320</v>
       </c>
-      <c r="C290" s="26">
+      <c r="C290" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -27949,7 +27949,7 @@
       <c r="B291" t="s">
         <v>218</v>
       </c>
-      <c r="C291" s="26">
+      <c r="C291" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -27960,7 +27960,7 @@
       <c r="B292" t="s">
         <v>218</v>
       </c>
-      <c r="C292" s="26">
+      <c r="C292" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -27971,7 +27971,7 @@
       <c r="B293" t="s">
         <v>47</v>
       </c>
-      <c r="C293" s="26">
+      <c r="C293" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -27982,7 +27982,7 @@
       <c r="B294" t="s">
         <v>218</v>
       </c>
-      <c r="C294" s="26">
+      <c r="C294" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -27993,7 +27993,7 @@
       <c r="B295" t="s">
         <v>218</v>
       </c>
-      <c r="C295" s="26">
+      <c r="C295" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -28004,7 +28004,7 @@
       <c r="B296" t="s">
         <v>47</v>
       </c>
-      <c r="C296" s="26">
+      <c r="C296" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -28015,7 +28015,7 @@
       <c r="B297" t="s">
         <v>218</v>
       </c>
-      <c r="C297" s="26">
+      <c r="C297" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -28026,7 +28026,7 @@
       <c r="B298" t="s">
         <v>218</v>
       </c>
-      <c r="C298" s="26">
+      <c r="C298" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -28037,7 +28037,7 @@
       <c r="B299" t="s">
         <v>915</v>
       </c>
-      <c r="C299" s="27">
+      <c r="C299" s="23">
         <v>37.259538391246998</v>
       </c>
     </row>
@@ -28048,7 +28048,7 @@
       <c r="B300" t="s">
         <v>921</v>
       </c>
-      <c r="C300" s="27">
+      <c r="C300" s="23">
         <v>23.570006411903901</v>
       </c>
     </row>
@@ -28059,7 +28059,7 @@
       <c r="B301" s="10" t="s">
         <v>918</v>
       </c>
-      <c r="C301" s="28">
+      <c r="C301" s="24">
         <v>23.570006411903901</v>
       </c>
     </row>
@@ -28070,7 +28070,7 @@
       <c r="B302" t="s">
         <v>934</v>
       </c>
-      <c r="C302" s="27">
+      <c r="C302" s="23">
         <v>8.3361576667160104</v>
       </c>
     </row>
@@ -28081,7 +28081,7 @@
       <c r="B303" t="s">
         <v>928</v>
       </c>
-      <c r="C303" s="27">
+      <c r="C303" s="23">
         <v>8.3361576667160104</v>
       </c>
     </row>
@@ -28092,7 +28092,7 @@
       <c r="B304" t="s">
         <v>931</v>
       </c>
-      <c r="C304" s="27">
+      <c r="C304" s="23">
         <v>8.3361576667160104</v>
       </c>
     </row>
@@ -28103,7 +28103,7 @@
       <c r="B305" t="s">
         <v>705</v>
       </c>
-      <c r="C305" s="27">
+      <c r="C305" s="23">
         <v>8.3361576667160104</v>
       </c>
     </row>
@@ -28114,7 +28114,7 @@
       <c r="B306" t="s">
         <v>705</v>
       </c>
-      <c r="C306" s="27">
+      <c r="C306" s="23">
         <v>8.3361576667160104</v>
       </c>
     </row>
@@ -28125,7 +28125,7 @@
       <c r="B307" t="s">
         <v>705</v>
       </c>
-      <c r="C307" s="27">
+      <c r="C307" s="23">
         <v>8.3361576667160104</v>
       </c>
     </row>
@@ -28136,7 +28136,7 @@
       <c r="B308" t="s">
         <v>941</v>
       </c>
-      <c r="C308" s="27">
+      <c r="C308" s="23">
         <v>8.3361576667160104</v>
       </c>
     </row>
@@ -28147,7 +28147,7 @@
       <c r="B309" t="s">
         <v>959</v>
       </c>
-      <c r="C309" s="27">
+      <c r="C309" s="23">
         <v>8.3361576667159802</v>
       </c>
     </row>
@@ -28158,7 +28158,7 @@
       <c r="B310" t="s">
         <v>963</v>
       </c>
-      <c r="C310" s="27">
+      <c r="C310" s="23">
         <v>8.3361576667159802</v>
       </c>
     </row>
@@ -28169,7 +28169,7 @@
       <c r="B311" t="s">
         <v>971</v>
       </c>
-      <c r="C311" s="27">
+      <c r="C311" s="23">
         <v>8.3078045578858593</v>
       </c>
     </row>
@@ -28180,7 +28180,7 @@
       <c r="B312" t="s">
         <v>971</v>
       </c>
-      <c r="C312" s="27">
+      <c r="C312" s="23">
         <v>8.3078045578858593</v>
       </c>
     </row>
@@ -28191,7 +28191,7 @@
       <c r="B313" t="s">
         <v>968</v>
       </c>
-      <c r="C313" s="27">
+      <c r="C313" s="23">
         <v>8.3055026910018093</v>
       </c>
     </row>
@@ -28202,7 +28202,7 @@
       <c r="B314" t="s">
         <v>968</v>
       </c>
-      <c r="C314" s="27">
+      <c r="C314" s="23">
         <v>8.3055026910018093</v>
       </c>
     </row>
@@ -28213,7 +28213,7 @@
       <c r="B315" t="s">
         <v>743</v>
       </c>
-      <c r="C315" s="27">
+      <c r="C315" s="23">
         <v>6.5895141029773301</v>
       </c>
     </row>
@@ -28224,7 +28224,7 @@
       <c r="B316" t="s">
         <v>977</v>
       </c>
-      <c r="C316" s="27">
+      <c r="C316" s="23">
         <v>6.5895141029773301</v>
       </c>
     </row>
@@ -28235,7 +28235,7 @@
       <c r="B317" t="s">
         <v>977</v>
       </c>
-      <c r="C317" s="27">
+      <c r="C317" s="23">
         <v>6.5895141029773301</v>
       </c>
     </row>
@@ -28246,7 +28246,7 @@
       <c r="B318" t="s">
         <v>313</v>
       </c>
-      <c r="C318" s="27">
+      <c r="C318" s="23">
         <v>6.3879103274026097</v>
       </c>
     </row>
@@ -28257,7 +28257,7 @@
       <c r="B319" t="s">
         <v>313</v>
       </c>
-      <c r="C319" s="27">
+      <c r="C319" s="23">
         <v>6.3879103274026097</v>
       </c>
     </row>
@@ -28268,7 +28268,7 @@
       <c r="B320" t="s">
         <v>313</v>
       </c>
-      <c r="C320" s="27">
+      <c r="C320" s="23">
         <v>6.3879103274026097</v>
       </c>
     </row>
@@ -28279,7 +28279,7 @@
       <c r="B321" t="s">
         <v>313</v>
       </c>
-      <c r="C321" s="27">
+      <c r="C321" s="23">
         <v>6.3879103274026097</v>
       </c>
     </row>
@@ -28290,7 +28290,7 @@
       <c r="B322" t="s">
         <v>348</v>
       </c>
-      <c r="C322" s="27">
+      <c r="C322" s="23">
         <v>4.1610705012346099</v>
       </c>
     </row>
@@ -28301,7 +28301,7 @@
       <c r="B323" t="s">
         <v>125</v>
       </c>
-      <c r="C323" s="27">
+      <c r="C323" s="23">
         <v>2.8663957832289002</v>
       </c>
     </row>
@@ -28312,7 +28312,7 @@
       <c r="B324" t="s">
         <v>125</v>
       </c>
-      <c r="C324" s="27">
+      <c r="C324" s="23">
         <v>2.8663957832289002</v>
       </c>
     </row>
@@ -28323,7 +28323,7 @@
       <c r="B325" t="s">
         <v>324</v>
       </c>
-      <c r="C325" s="27">
+      <c r="C325" s="23">
         <v>2.69563499860869</v>
       </c>
     </row>
@@ -28334,7 +28334,7 @@
       <c r="B326" t="s">
         <v>293</v>
       </c>
-      <c r="C326" s="27">
+      <c r="C326" s="23">
         <v>1.5200771413065499</v>
       </c>
     </row>
@@ -28345,7 +28345,7 @@
       <c r="B327" t="s">
         <v>277</v>
       </c>
-      <c r="C327" s="27">
+      <c r="C327" s="23">
         <v>1.43120263014339</v>
       </c>
     </row>
@@ -28356,7 +28356,7 @@
       <c r="B328" t="s">
         <v>273</v>
       </c>
-      <c r="C328" s="27">
+      <c r="C328" s="23">
         <v>1.43120263014339</v>
       </c>
     </row>
@@ -28367,7 +28367,7 @@
       <c r="B329" t="s">
         <v>301</v>
       </c>
-      <c r="C329" s="27">
+      <c r="C329" s="23">
         <v>1.1105322590645801</v>
       </c>
     </row>
@@ -28378,7 +28378,7 @@
       <c r="B330" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C330" s="28">
+      <c r="C330" s="24">
         <v>1.1105322590645801</v>
       </c>
     </row>
@@ -28389,7 +28389,7 @@
       <c r="B331" t="s">
         <v>443</v>
       </c>
-      <c r="C331" s="27">
+      <c r="C331" s="23">
         <v>1.10642064740061</v>
       </c>
     </row>
@@ -28400,7 +28400,7 @@
       <c r="B332" t="s">
         <v>447</v>
       </c>
-      <c r="C332" s="27">
+      <c r="C332" s="23">
         <v>1.10642064740061</v>
       </c>
     </row>
@@ -28411,7 +28411,7 @@
       <c r="B333" t="s">
         <v>645</v>
       </c>
-      <c r="C333" s="27">
+      <c r="C333" s="23">
         <v>1.0317783570102199</v>
       </c>
     </row>
@@ -28422,7 +28422,7 @@
       <c r="B334" t="s">
         <v>289</v>
       </c>
-      <c r="C334" s="27">
+      <c r="C334" s="23">
         <v>1.00141665435174</v>
       </c>
     </row>
@@ -28433,7 +28433,7 @@
       <c r="B335" t="s">
         <v>289</v>
       </c>
-      <c r="C335" s="27">
+      <c r="C335" s="23">
         <v>1.00141665435174</v>
       </c>
     </row>
@@ -28444,7 +28444,7 @@
       <c r="B336" t="s">
         <v>289</v>
       </c>
-      <c r="C336" s="27">
+      <c r="C336" s="23">
         <v>1.00141665435174</v>
       </c>
     </row>
@@ -28455,7 +28455,7 @@
       <c r="B337" t="s">
         <v>289</v>
       </c>
-      <c r="C337" s="27">
+      <c r="C337" s="23">
         <v>1.00141665435174</v>
       </c>
     </row>
@@ -28466,7 +28466,7 @@
       <c r="B338" t="s">
         <v>289</v>
       </c>
-      <c r="C338" s="27">
+      <c r="C338" s="23">
         <v>1.00141665435174</v>
       </c>
     </row>
@@ -28477,7 +28477,7 @@
       <c r="B339" t="s">
         <v>289</v>
       </c>
-      <c r="C339" s="27">
+      <c r="C339" s="23">
         <v>1.00141665435174</v>
       </c>
     </row>
@@ -28488,7 +28488,7 @@
       <c r="B340" t="s">
         <v>289</v>
       </c>
-      <c r="C340" s="27">
+      <c r="C340" s="23">
         <v>1.00141665435174</v>
       </c>
     </row>
@@ -28499,7 +28499,7 @@
       <c r="B341" t="s">
         <v>289</v>
       </c>
-      <c r="C341" s="27">
+      <c r="C341" s="23">
         <v>1.00141665435174</v>
       </c>
     </row>
@@ -28510,7 +28510,7 @@
       <c r="B342" t="s">
         <v>285</v>
       </c>
-      <c r="C342" s="27">
+      <c r="C342" s="23">
         <v>1.00141665435174</v>
       </c>
     </row>
@@ -28521,7 +28521,7 @@
       <c r="B343" t="s">
         <v>285</v>
       </c>
-      <c r="C343" s="27">
+      <c r="C343" s="23">
         <v>1.00141665435174</v>
       </c>
     </row>
@@ -28532,7 +28532,7 @@
       <c r="B344" t="s">
         <v>289</v>
       </c>
-      <c r="C344" s="27">
+      <c r="C344" s="23">
         <v>1.00141665435174</v>
       </c>
     </row>
@@ -28543,7 +28543,7 @@
       <c r="B345" t="s">
         <v>1478</v>
       </c>
-      <c r="C345" s="27">
+      <c r="C345" s="23">
         <v>0.40637195101645701</v>
       </c>
     </row>
@@ -28554,7 +28554,7 @@
       <c r="B346" t="s">
         <v>1483</v>
       </c>
-      <c r="C346" s="27">
+      <c r="C346" s="23">
         <v>0.40241649638941901</v>
       </c>
     </row>
@@ -28565,7 +28565,7 @@
       <c r="B347" t="s">
         <v>365</v>
       </c>
-      <c r="C347" s="27">
+      <c r="C347" s="23">
         <v>0.19741766022030499</v>
       </c>
     </row>
@@ -28576,7 +28576,7 @@
       <c r="B348" t="s">
         <v>369</v>
       </c>
-      <c r="C348" s="27">
+      <c r="C348" s="23">
         <v>0.19741766022030499</v>
       </c>
     </row>
@@ -28587,7 +28587,7 @@
       <c r="B349" t="s">
         <v>361</v>
       </c>
-      <c r="C349" s="27">
+      <c r="C349" s="23">
         <v>0.19741766022030499</v>
       </c>
     </row>
@@ -28598,7 +28598,7 @@
       <c r="B350" t="s">
         <v>388</v>
       </c>
-      <c r="C350" s="27">
+      <c r="C350" s="23">
         <v>9.9401734614570705E-2</v>
       </c>
     </row>
@@ -28609,7 +28609,7 @@
       <c r="B351" t="s">
         <v>388</v>
       </c>
-      <c r="C351" s="27">
+      <c r="C351" s="23">
         <v>9.9401734614570705E-2</v>
       </c>
     </row>
@@ -28620,7 +28620,7 @@
       <c r="B352" t="s">
         <v>1498</v>
       </c>
-      <c r="C352" s="26">
+      <c r="C352" s="22">
         <v>0</v>
       </c>
     </row>
@@ -28631,7 +28631,7 @@
       <c r="B353" t="s">
         <v>1498</v>
       </c>
-      <c r="C353" s="26">
+      <c r="C353" s="22">
         <v>0</v>
       </c>
     </row>
@@ -28642,7 +28642,7 @@
       <c r="B354" t="s">
         <v>1498</v>
       </c>
-      <c r="C354" s="26">
+      <c r="C354" s="22">
         <v>0</v>
       </c>
     </row>
@@ -28653,7 +28653,7 @@
       <c r="B355" t="s">
         <v>1498</v>
       </c>
-      <c r="C355" s="26">
+      <c r="C355" s="22">
         <v>0</v>
       </c>
     </row>
@@ -28664,7 +28664,7 @@
       <c r="B356" t="s">
         <v>1498</v>
       </c>
-      <c r="C356" s="26">
+      <c r="C356" s="22">
         <v>0</v>
       </c>
     </row>
@@ -28675,7 +28675,7 @@
       <c r="B357" t="s">
         <v>1498</v>
       </c>
-      <c r="C357" s="26">
+      <c r="C357" s="22">
         <v>0</v>
       </c>
     </row>
@@ -28686,7 +28686,7 @@
       <c r="B358" t="s">
         <v>1498</v>
       </c>
-      <c r="C358" s="26">
+      <c r="C358" s="22">
         <v>0</v>
       </c>
     </row>
@@ -28697,7 +28697,7 @@
       <c r="B359" t="s">
         <v>1498</v>
       </c>
-      <c r="C359" s="26">
+      <c r="C359" s="22">
         <v>0</v>
       </c>
     </row>
@@ -28708,7 +28708,7 @@
       <c r="B360" t="s">
         <v>1498</v>
       </c>
-      <c r="C360" s="26">
+      <c r="C360" s="22">
         <v>0</v>
       </c>
     </row>
@@ -28719,7 +28719,7 @@
       <c r="B361" t="s">
         <v>1498</v>
       </c>
-      <c r="C361" s="26">
+      <c r="C361" s="22">
         <v>0</v>
       </c>
     </row>

--- a/ecYaliGEM/output/enzymeUsage vs FSEOF.xlsx
+++ b/ecYaliGEM/output/enzymeUsage vs FSEOF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jujum\OneDrive\Documentos\GitHub\GECKO\ecYaliGEM\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F081B91F-2860-48AC-B43A-19AB753A3B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561626A0-5BF8-4544-926F-82F7A610E3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ecYali_Exp" sheetId="1" r:id="rId1"/>
@@ -5779,7 +5779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5817,14 +5817,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5885,17 +5883,6 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5917,6 +5904,17 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -12544,7 +12542,7 @@
     <tableColumn id="7" xr3:uid="{B8AE34E5-96E2-4669-8C35-372E0E058E39}" name="Full capacity?" dataDxfId="17">
       <calculatedColumnFormula>COUNTIF(Tabela1[rxnID],Tabela2[[#This Row],[rxnID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E29B3D2B-E0B4-4A3D-B4A6-3516D246A57F}" name="Coluna1" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{E29B3D2B-E0B4-4A3D-B4A6-3516D246A57F}" name="Coluna1" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12561,7 +12559,7 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{376CAA50-40A1-4E7F-8703-DDDD2C53A76B}" name="Gene"/>
-    <tableColumn id="2" xr3:uid="{C96A8BC2-B7BA-4416-83AF-A6BE6C23B623}" name="K-score" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C96A8BC2-B7BA-4416-83AF-A6BE6C23B623}" name="K-score" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{28D3AAA4-C01E-4763-9813-BCBCDA6F710D}" name="rxnName"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -12596,7 +12594,7 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{9828324B-B1A7-405F-BDF4-02AB298648CB}" name="rxnID"/>
     <tableColumn id="2" xr3:uid="{1D21A188-4E6E-4813-93C9-53303D94A8FA}" name="rxnName"/>
-    <tableColumn id="3" xr3:uid="{BD1DDBF5-5E6C-439F-AEE5-4B786B6139B8}" name="k-score (FSEOF)" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{BD1DDBF5-5E6C-439F-AEE5-4B786B6139B8}" name="k-score (FSEOF)" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{69444D84-9159-4F7A-860D-B03514F4C1C6}" name="grRules"/>
     <tableColumn id="5" xr3:uid="{7FD0E090-AED0-437F-91AD-29933D0FD7AE}" name="rxnEquation"/>
     <tableColumn id="6" xr3:uid="{C1A1CBE8-80C2-47C9-8E2C-7ED9594B1DEC}" name="Full capacity?">
@@ -12614,14 +12612,14 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{4905A0A7-9CA0-4B61-A17A-A60AA93CFAF9}" name="protID"/>
     <tableColumn id="2" xr3:uid="{07CE7141-993F-4265-ADA2-1D7AE02E2331}" name="geneID"/>
-    <tableColumn id="3" xr3:uid="{DD485713-254D-456F-A6A4-FF80A9F2504A}" name="absUsage" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{6ED1EEFA-F296-4FEE-8090-465370BDD4EB}" name="percUsage" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{8EF813D8-C987-4BEE-BB29-271B2A5ADA14}" name="kcat" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{DD485713-254D-456F-A6A4-FF80A9F2504A}" name="absUsage" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{6ED1EEFA-F296-4FEE-8090-465370BDD4EB}" name="percUsage" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{8EF813D8-C987-4BEE-BB29-271B2A5ADA14}" name="kcat" dataDxfId="11"/>
     <tableColumn id="6" xr3:uid="{E9482A6E-4578-462E-B118-408E2D0DD4F9}" name="sorce"/>
     <tableColumn id="7" xr3:uid="{3318B392-664A-4D18-A77D-DFA08B424AEA}" name="rxnID"/>
     <tableColumn id="8" xr3:uid="{54DDE929-E8C8-4736-9AD2-5FD58FCAE634}" name="rxnNames"/>
     <tableColumn id="9" xr3:uid="{44B3321F-81D2-4832-A9C4-ED4925AE4EEB}" name="grRules"/>
-    <tableColumn id="10" xr3:uid="{0A4F1D80-C65F-4E35-8820-A1CCE3DCC85B}" name="FSEOF?" dataDxfId="12">
+    <tableColumn id="10" xr3:uid="{0A4F1D80-C65F-4E35-8820-A1CCE3DCC85B}" name="FSEOF?" dataDxfId="10">
       <calculatedColumnFormula>COUNTIF(Tabela5[rxnID],G83)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{84091260-CE60-469A-9EF2-267494370C4C}" name="Full capacity?">
@@ -12660,7 +12658,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{87BE210B-E26E-4D99-9F75-2FB7BB547A2E}" name="Genes"/>
     <tableColumn id="2" xr3:uid="{9DB0997A-9630-447E-84DF-46C65C91CCBD}" name="Gene Names"/>
-    <tableColumn id="3" xr3:uid="{0E46B091-E495-4819-A523-84DE06CEF752}" name="k-scores" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{0E46B091-E495-4819-A523-84DE06CEF752}" name="k-scores" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12990,15 +12988,15 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -15220,7 +15218,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G74" s="29" t="s">
+      <c r="G74" t="s">
         <v>1539</v>
       </c>
       <c r="H74" s="8" t="s">
@@ -15256,7 +15254,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G75" s="29" t="s">
+      <c r="G75" t="s">
         <v>1542</v>
       </c>
       <c r="H75" s="4" t="s">
@@ -15292,7 +15290,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G76" s="29" t="s">
+      <c r="G76" t="s">
         <v>1546</v>
       </c>
       <c r="H76" s="5" t="s">
@@ -15328,7 +15326,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G77" s="29" t="s">
+      <c r="G77" t="s">
         <v>1549</v>
       </c>
       <c r="J77" t="s">
@@ -15361,7 +15359,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G78" s="29" t="s">
+      <c r="G78" t="s">
         <v>1539</v>
       </c>
       <c r="J78" t="s">
@@ -15394,7 +15392,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G79" s="29" t="s">
+      <c r="G79" t="s">
         <v>1554</v>
       </c>
       <c r="J79" t="s">
@@ -15427,7 +15425,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G80" s="29" t="s">
+      <c r="G80" t="s">
         <v>1558</v>
       </c>
       <c r="J80" t="s">
@@ -15460,7 +15458,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G81" s="29" t="s">
+      <c r="G81" t="s">
         <v>1562</v>
       </c>
       <c r="J81" t="s">
@@ -15493,7 +15491,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G82" s="29" t="s">
+      <c r="G82" t="s">
         <v>1566</v>
       </c>
       <c r="J82" t="s">
@@ -15526,7 +15524,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G83" s="29" t="s">
+      <c r="G83" t="s">
         <v>1566</v>
       </c>
       <c r="J83" t="s">
@@ -15559,7 +15557,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G84" s="29" t="s">
+      <c r="G84" t="s">
         <v>1570</v>
       </c>
       <c r="J84" t="s">
@@ -15592,7 +15590,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G85" s="29" t="s">
+      <c r="G85" t="s">
         <v>269</v>
       </c>
       <c r="J85" t="s">
@@ -15625,7 +15623,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G86" s="29" t="s">
+      <c r="G86" t="s">
         <v>238</v>
       </c>
       <c r="J86" t="s">
@@ -15658,7 +15656,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G87" s="29" t="s">
+      <c r="G87" t="s">
         <v>265</v>
       </c>
       <c r="J87" t="s">
@@ -15691,7 +15689,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G88" s="29" t="s">
+      <c r="G88" t="s">
         <v>1576</v>
       </c>
       <c r="J88" t="s">
@@ -15724,7 +15722,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G89" s="29" t="s">
+      <c r="G89" t="s">
         <v>250</v>
       </c>
       <c r="J89" t="s">
@@ -15757,7 +15755,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G90" s="29" t="s">
+      <c r="G90" t="s">
         <v>262</v>
       </c>
       <c r="J90" t="s">
@@ -15790,7 +15788,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G91" s="29" t="s">
+      <c r="G91" t="s">
         <v>273</v>
       </c>
       <c r="J91" t="s">
@@ -15823,7 +15821,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G92" s="29" t="s">
+      <c r="G92" t="s">
         <v>1581</v>
       </c>
       <c r="J92" t="s">
@@ -15856,7 +15854,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G93" s="29" t="s">
+      <c r="G93" t="s">
         <v>1585</v>
       </c>
       <c r="J93" t="s">
@@ -15889,7 +15887,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G94" s="29" t="s">
+      <c r="G94" t="s">
         <v>1588</v>
       </c>
       <c r="J94" t="s">
@@ -15922,7 +15920,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G95" s="29" t="s">
+      <c r="G95" t="s">
         <v>1592</v>
       </c>
       <c r="J95" t="s">
@@ -15955,7 +15953,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G96" s="29" t="s">
+      <c r="G96" t="s">
         <v>1594</v>
       </c>
       <c r="J96" t="s">
@@ -15988,7 +15986,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G97" s="29" t="s">
+      <c r="G97" t="s">
         <v>1596</v>
       </c>
       <c r="J97" t="s">
@@ -16021,7 +16019,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G98" s="29" t="s">
+      <c r="G98" t="s">
         <v>1598</v>
       </c>
       <c r="J98" t="s">
@@ -16054,7 +16052,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G99" s="29" t="s">
+      <c r="G99" t="s">
         <v>1600</v>
       </c>
       <c r="J99" t="s">
@@ -16087,7 +16085,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G100" s="29" t="s">
+      <c r="G100" t="s">
         <v>1602</v>
       </c>
       <c r="J100" t="s">
@@ -16120,7 +16118,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G101" s="29" t="s">
+      <c r="G101" t="s">
         <v>1604</v>
       </c>
       <c r="J101" t="s">
@@ -16150,7 +16148,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G102" s="29" t="s">
+      <c r="G102" t="s">
         <v>1606</v>
       </c>
       <c r="J102" t="s">
@@ -16180,7 +16178,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>1</v>
       </c>
-      <c r="G103" s="29" t="s">
+      <c r="G103" t="s">
         <v>1461</v>
       </c>
       <c r="J103" t="s">
@@ -16210,7 +16208,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G104" s="29" t="s">
+      <c r="G104" t="s">
         <v>1609</v>
       </c>
       <c r="J104" t="s">
@@ -16240,7 +16238,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G105" s="29" t="s">
+      <c r="G105" t="s">
         <v>1612</v>
       </c>
       <c r="J105" t="s">
@@ -16273,7 +16271,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G106" s="29" t="s">
+      <c r="G106" t="s">
         <v>1614</v>
       </c>
       <c r="J106" t="s">
@@ -16303,7 +16301,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G107" s="29" t="s">
+      <c r="G107" t="s">
         <v>1617</v>
       </c>
       <c r="J107" t="s">
@@ -16333,7 +16331,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G108" s="29" t="s">
+      <c r="G108" t="s">
         <v>1621</v>
       </c>
       <c r="J108" t="s">
@@ -16366,7 +16364,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>2</v>
       </c>
-      <c r="G109" s="29" t="s">
+      <c r="G109" t="s">
         <v>1474</v>
       </c>
       <c r="J109" t="s">
@@ -16399,7 +16397,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G110" s="29" t="s">
+      <c r="G110" t="s">
         <v>1628</v>
       </c>
       <c r="J110" t="s">
@@ -16429,7 +16427,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G111" s="29" t="s">
+      <c r="G111" t="s">
         <v>1632</v>
       </c>
       <c r="J111" t="s">
@@ -16462,7 +16460,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G112" s="29" t="s">
+      <c r="G112" t="s">
         <v>1542</v>
       </c>
       <c r="J112" t="s">
@@ -16492,7 +16490,7 @@
         <f>COUNTIF(Tabela1[rxnName],Tabela2[[#This Row],[rxnName]])</f>
         <v>0</v>
       </c>
-      <c r="G113" s="29" t="s">
+      <c r="G113" t="s">
         <v>227</v>
       </c>
       <c r="J113" t="s">
@@ -16522,7 +16520,7 @@
         <f>COUNTIF(Tabela1[rxnID],Tabela2[[#This Row],[rxnID]])</f>
         <v>0</v>
       </c>
-      <c r="G114" s="29" t="s">
+      <c r="G114" t="s">
         <v>1640</v>
       </c>
       <c r="J114" t="s">
@@ -16552,7 +16550,7 @@
         <f>COUNTIF(Tabela1[rxnID],Tabela2[[#This Row],[rxnID]])</f>
         <v>0</v>
       </c>
-      <c r="G115" s="29" t="s">
+      <c r="G115" t="s">
         <v>1643</v>
       </c>
       <c r="J115" t="s">
@@ -16582,7 +16580,7 @@
         <f>COUNTIF(Tabela1[rxnID],Tabela2[[#This Row],[rxnID]])</f>
         <v>0</v>
       </c>
-      <c r="G116" s="29" t="s">
+      <c r="G116" t="s">
         <v>1474</v>
       </c>
       <c r="J116" t="s">
@@ -16612,7 +16610,7 @@
         <f>COUNTIF(Tabela1[rxnID],Tabela2[[#This Row],[rxnID]])</f>
         <v>0</v>
       </c>
-      <c r="G117" s="29" t="s">
+      <c r="G117" t="s">
         <v>1648</v>
       </c>
       <c r="J117" t="s">
@@ -16642,7 +16640,7 @@
         <f>COUNTIF(Tabela1[rxnID],Tabela2[[#This Row],[rxnID]])</f>
         <v>0</v>
       </c>
-      <c r="G118" s="29" t="s">
+      <c r="G118" t="s">
         <v>1648</v>
       </c>
       <c r="J118" t="s">
@@ -16675,7 +16673,7 @@
         <f>COUNTIF(Tabela1[rxnID],Tabela2[[#This Row],[rxnID]])</f>
         <v>0</v>
       </c>
-      <c r="G119" s="29" t="s">
+      <c r="G119" t="s">
         <v>1654</v>
       </c>
       <c r="J119" t="s">
@@ -16705,7 +16703,7 @@
         <f>COUNTIF(Tabela1[rxnID],Tabela2[[#This Row],[rxnID]])</f>
         <v>0</v>
       </c>
-      <c r="G120" s="29" t="s">
+      <c r="G120" t="s">
         <v>1493</v>
       </c>
       <c r="J120" t="s">
@@ -16735,7 +16733,7 @@
         <f>COUNTIF(Tabela1[rxnID],Tabela2[[#This Row],[rxnID]])</f>
         <v>0</v>
       </c>
-      <c r="G121" s="29" t="s">
+      <c r="G121" t="s">
         <v>1497</v>
       </c>
       <c r="J121" t="s">
@@ -16765,7 +16763,7 @@
         <f>COUNTIF(Tabela1[rxnID],Tabela2[[#This Row],[rxnID]])</f>
         <v>0</v>
       </c>
-      <c r="G122" s="29" t="s">
+      <c r="G122" t="s">
         <v>1501</v>
       </c>
     </row>
@@ -16789,127 +16787,127 @@
         <f>COUNTIF(Tabela1[rxnID],Tabela2[[#This Row],[rxnID]])</f>
         <v>0</v>
       </c>
-      <c r="G123" s="29" t="s">
+      <c r="G123" t="s">
         <v>1663</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="29" t="s">
+      <c r="A124" t="s">
         <v>1666</v>
       </c>
-      <c r="B124" s="29" t="s">
+      <c r="B124" t="s">
         <v>1667</v>
       </c>
-      <c r="C124" s="30">
-        <v>0</v>
-      </c>
-      <c r="D124" s="29" t="s">
+      <c r="C124" s="16">
+        <v>0</v>
+      </c>
+      <c r="D124" t="s">
         <v>1664</v>
       </c>
-      <c r="E124" s="29" t="s">
+      <c r="E124" t="s">
         <v>1668</v>
       </c>
-      <c r="F124" s="29">
+      <c r="F124">
         <f>COUNTIF(Tabela1[rxnID],Tabela2[[#This Row],[rxnID]])</f>
         <v>0</v>
       </c>
-      <c r="G124" s="29" t="s">
+      <c r="G124" t="s">
         <v>1667</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="29" t="s">
+      <c r="A125" t="s">
         <v>1172</v>
       </c>
-      <c r="B125" s="29" t="s">
+      <c r="B125" t="s">
         <v>1669</v>
       </c>
-      <c r="C125" s="30">
-        <v>0</v>
-      </c>
-      <c r="D125" s="29" t="s">
+      <c r="C125" s="16">
+        <v>0</v>
+      </c>
+      <c r="D125" t="s">
         <v>1670</v>
       </c>
-      <c r="E125" s="29" t="s">
+      <c r="E125" t="s">
         <v>1671</v>
       </c>
-      <c r="F125" s="29">
+      <c r="F125">
         <f>COUNTIF(Tabela1[rxnID],Tabela2[[#This Row],[rxnID]])</f>
         <v>0</v>
       </c>
-      <c r="G125" s="29" t="s">
+      <c r="G125" t="s">
         <v>1669</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="29" t="s">
+      <c r="A126" t="s">
         <v>1672</v>
       </c>
-      <c r="B126" s="29" t="s">
+      <c r="B126" t="s">
         <v>1673</v>
       </c>
-      <c r="C126" s="30">
-        <v>0</v>
-      </c>
-      <c r="D126" s="29" t="s">
+      <c r="C126" s="16">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
         <v>1674</v>
       </c>
-      <c r="E126" s="29" t="s">
+      <c r="E126" t="s">
         <v>1675</v>
       </c>
-      <c r="F126" s="29">
+      <c r="F126">
         <f>COUNTIF(Tabela1[rxnID],Tabela2[[#This Row],[rxnID]])</f>
         <v>0</v>
       </c>
-      <c r="G126" s="29" t="s">
+      <c r="G126" t="s">
         <v>1673</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="29" t="s">
+      <c r="A127" t="s">
         <v>1398</v>
       </c>
-      <c r="B127" s="29" t="s">
+      <c r="B127" t="s">
         <v>1676</v>
       </c>
-      <c r="C127" s="30">
-        <v>0</v>
-      </c>
-      <c r="D127" s="29" t="s">
+      <c r="C127" s="16">
+        <v>0</v>
+      </c>
+      <c r="D127" t="s">
         <v>1677</v>
       </c>
-      <c r="E127" s="29" t="s">
+      <c r="E127" t="s">
         <v>1678</v>
       </c>
-      <c r="F127" s="29">
+      <c r="F127">
         <f>COUNTIF(Tabela1[rxnID],Tabela2[[#This Row],[rxnID]])</f>
         <v>0</v>
       </c>
-      <c r="G127" s="29" t="s">
+      <c r="G127" t="s">
         <v>1676</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="29" t="s">
+      <c r="A128" t="s">
         <v>1196</v>
       </c>
-      <c r="B128" s="29" t="s">
+      <c r="B128" t="s">
         <v>1679</v>
       </c>
-      <c r="C128" s="30">
-        <v>0</v>
-      </c>
-      <c r="D128" s="29" t="s">
+      <c r="C128" s="16">
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
         <v>1680</v>
       </c>
-      <c r="E128" s="29" t="s">
+      <c r="E128" t="s">
         <v>1681</v>
       </c>
-      <c r="F128" s="29">
+      <c r="F128">
         <f>COUNTIF(Tabela1[rxnID],Tabela2[[#This Row],[rxnID]])</f>
         <v>0</v>
       </c>
-      <c r="G128" s="29" t="s">
+      <c r="G128" t="s">
         <v>1679</v>
       </c>
     </row>
@@ -17083,7 +17081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD147150-DDDE-4176-9567-786D2C29D3F7}">
   <dimension ref="A1:Q105"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A83" sqref="A83:H105"/>
     </sheetView>
   </sheetViews>
@@ -17141,15 +17139,15 @@
       <c r="H2" t="s">
         <v>176</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -19170,19 +19168,19 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
       <c r="M81" t="s">
         <v>275</v>
       </c>
@@ -20204,7 +20202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EFCAA3-E27B-4FE4-B624-75200D03C114}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>

--- a/ecYaliGEM/output/enzymeUsage vs FSEOF.xlsx
+++ b/ecYaliGEM/output/enzymeUsage vs FSEOF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jusabe\Documents\GECKO\ecYaliGEM\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADADFDA1-5F00-4DED-A664-01C0408FB722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE7A5E5-BFFC-4DD9-81E6-1F92FF33AACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="2520" windowWidth="14400" windowHeight="15600" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ecYali_Exp" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4397" uniqueCount="2458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="2465">
   <si>
     <t>'YALI0E02728g'</t>
   </si>
@@ -7412,10 +7412,31 @@
     <t>'''ATP[c] + citrate[c] + coenzyme A[c] + 0.33814 prot_Q6C3H5[c] + 0.25611 prot_Q6C7Y1[c] =&gt; acetyl-CoA[c] + ADP[c] + oxaloacetate[c...'' &lt;Preview truncated at 128 characters&gt;'</t>
   </si>
   <si>
-    <t>(S)-malate[m] + NAD[m] + 0.14314 prot_Q6C5F0[c] =&gt; carbon dioxide[m] + NADH[m] + pyruvate[m]'</t>
-  </si>
-  <si>
-    <t>H2O[c] + L-glutamate[c] + NAD[c] + 0.23878 prot_Q6C6H1[c] =&gt; 2-oxoglutarate[c] + ammonium[c] + H+[c] + NADH[c]'</t>
+    <t>'(S)-malate[m] + NAD[m] + 0.14314 prot_Q6C5F0[c] =&gt; carbon dioxide[m] + NADH[m] + pyruvate[m]'</t>
+  </si>
+  <si>
+    <t>'H2O[c] + L-glutamate[c] + NAD[c] + 0.23878 prot_Q6C6H1[c] =&gt; 2-oxoglutarate[c] + ammonium[c] + H+[c] + NADH[c]'</t>
+  </si>
+  <si>
+    <t>'y102884'</t>
+  </si>
+  <si>
+    <t>'PE diacylglycerol acyltransferase'</t>
+  </si>
+  <si>
+    <t>'''diglyceride[erm] + phosphatidylethanolamine[erm] + 0.51315 prot_Q6C5M4[c] =&gt; 1-acylglycerophosphoethanolamine[erm] + triglycerid...'' &lt;Preview truncated at 128 characters&gt;'</t>
+  </si>
+  <si>
+    <t>'y103312'</t>
+  </si>
+  <si>
+    <t>'lysoPE acyltransferase, lipid particle'</t>
+  </si>
+  <si>
+    <t>'YALI0D16379g'</t>
+  </si>
+  <si>
+    <t>'1-acylglycerophosphoethanolamine[lp] + acyl-CoA[lp] + 0.001666 prot_Q6C8W4[c] =&gt; phosphatidylethanolamine[lp] + coenzyme A[lp]'</t>
   </si>
 </sst>
 </file>
@@ -7522,7 +7543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7570,14 +7591,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -7633,6 +7652,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -14445,15 +14467,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7F0AA8EA-476C-4F4B-80F4-DE8A34E64E46}" name="Tabela5" displayName="Tabela5" ref="L35:R80" totalsRowShown="0">
-  <autoFilter ref="L35:R80" xr:uid="{7F0AA8EA-476C-4F4B-80F4-DE8A34E64E46}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7F0AA8EA-476C-4F4B-80F4-DE8A34E64E46}" name="Tabela5" displayName="Tabela5" ref="L35:R82" totalsRowShown="0">
+  <autoFilter ref="L35:R82" xr:uid="{7F0AA8EA-476C-4F4B-80F4-DE8A34E64E46}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{9828324B-B1A7-405F-BDF4-02AB298648CB}" name="rxnID"/>
     <tableColumn id="2" xr3:uid="{1D21A188-4E6E-4813-93C9-53303D94A8FA}" name="rxnName"/>
     <tableColumn id="3" xr3:uid="{BD1DDBF5-5E6C-439F-AEE5-4B786B6139B8}" name="k-score (FSEOF)" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{69444D84-9159-4F7A-860D-B03514F4C1C6}" name="grRules"/>
     <tableColumn id="5" xr3:uid="{7FD0E090-AED0-437F-91AD-29933D0FD7AE}" name="rxnEquation"/>
-    <tableColumn id="6" xr3:uid="{C1A1CBE8-80C2-47C9-8E2C-7ED9594B1DEC}" name="Full capacity?" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{C1A1CBE8-80C2-47C9-8E2C-7ED9594B1DEC}" name="Full capacity?" dataDxfId="11">
       <calculatedColumnFormula>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{E511D38C-DB49-458B-B4DE-F2D62D623BAD}" name="Comments"/>
@@ -14468,14 +14490,14 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{4905A0A7-9CA0-4B61-A17A-A60AA93CFAF9}" name="protID"/>
     <tableColumn id="2" xr3:uid="{07CE7141-993F-4265-ADA2-1D7AE02E2331}" name="geneID"/>
-    <tableColumn id="3" xr3:uid="{DD485713-254D-456F-A6A4-FF80A9F2504A}" name="absUsage" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{6ED1EEFA-F296-4FEE-8090-465370BDD4EB}" name="percUsage" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{8EF813D8-C987-4BEE-BB29-271B2A5ADA14}" name="kcat" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{DD485713-254D-456F-A6A4-FF80A9F2504A}" name="absUsage" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{6ED1EEFA-F296-4FEE-8090-465370BDD4EB}" name="percUsage" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{8EF813D8-C987-4BEE-BB29-271B2A5ADA14}" name="kcat" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{E9482A6E-4578-462E-B118-408E2D0DD4F9}" name="sorce"/>
     <tableColumn id="7" xr3:uid="{3318B392-664A-4D18-A77D-DFA08B424AEA}" name="rxnID"/>
     <tableColumn id="8" xr3:uid="{54DDE929-E8C8-4736-9AD2-5FD58FCAE634}" name="rxnNames"/>
     <tableColumn id="9" xr3:uid="{44B3321F-81D2-4832-A9C4-ED4925AE4EEB}" name="grRules"/>
-    <tableColumn id="10" xr3:uid="{0A4F1D80-C65F-4E35-8820-A1CCE3DCC85B}" name="FSEOF?" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{0A4F1D80-C65F-4E35-8820-A1CCE3DCC85B}" name="FSEOF?" dataDxfId="7">
       <calculatedColumnFormula>COUNTIF(Tabela5[rxnID],R94)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{84091260-CE60-469A-9EF2-267494370C4C}" name="Full capacity?">
@@ -14514,7 +14536,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{87BE210B-E26E-4D99-9F75-2FB7BB547A2E}" name="Genes"/>
     <tableColumn id="2" xr3:uid="{9DB0997A-9630-447E-84DF-46C65C91CCBD}" name="Gene Names"/>
-    <tableColumn id="3" xr3:uid="{0E46B091-E495-4819-A523-84DE06CEF752}" name="k-scores" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0E46B091-E495-4819-A523-84DE06CEF752}" name="k-scores" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -18902,24 +18924,24 @@
     <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="C74:C113">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>C74&lt;0.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>C74&lt;0.05</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>C74&gt;=1.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74:K121">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>K74&lt;0.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>K74&lt;0.05</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>K74&gt;=1.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18937,8 +18959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD147150-DDDE-4176-9567-786D2C29D3F7}">
   <dimension ref="A1:V359"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView topLeftCell="L31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18956,6 +18978,7 @@
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="71" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="52.42578125" customWidth="1"/>
     <col min="16" max="16" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="48.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -20025,7 +20048,7 @@
         <v>484</v>
       </c>
       <c r="N36">
-        <v>7.0188994892474099</v>
+        <v>7.2380793002505603</v>
       </c>
       <c r="O36" t="s">
         <v>485</v>
@@ -20068,7 +20091,7 @@
         <v>1064</v>
       </c>
       <c r="N37">
-        <v>2.6841952033690002</v>
+        <v>2.7045251959609899</v>
       </c>
       <c r="O37" t="s">
         <v>474</v>
@@ -20111,7 +20134,7 @@
         <v>2365</v>
       </c>
       <c r="N38">
-        <v>2.4484005684457899</v>
+        <v>2.3748145435805901</v>
       </c>
       <c r="O38" t="s">
         <v>2366</v>
@@ -20148,19 +20171,19 @@
       </c>
       <c r="H39" s="24"/>
       <c r="L39" t="s">
-        <v>2367</v>
+        <v>2458</v>
       </c>
       <c r="M39" t="s">
-        <v>100</v>
+        <v>2459</v>
       </c>
       <c r="N39">
-        <v>1.2190082359602701</v>
+        <v>1.544309023012</v>
       </c>
       <c r="O39" t="s">
-        <v>101</v>
+        <v>379</v>
       </c>
       <c r="P39" t="s">
-        <v>2368</v>
+        <v>2460</v>
       </c>
       <c r="Q39">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -20191,19 +20214,19 @@
       </c>
       <c r="H40" s="24"/>
       <c r="L40" t="s">
-        <v>2369</v>
+        <v>2461</v>
       </c>
       <c r="M40" t="s">
-        <v>92</v>
+        <v>2462</v>
       </c>
       <c r="N40">
-        <v>1.17585824591855</v>
+        <v>1.544309023012</v>
       </c>
       <c r="O40" t="s">
-        <v>93</v>
+        <v>2463</v>
       </c>
       <c r="P40" t="s">
-        <v>2370</v>
+        <v>2464</v>
       </c>
       <c r="Q40">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -20234,23 +20257,23 @@
       </c>
       <c r="H41" s="24"/>
       <c r="L41" t="s">
-        <v>1824</v>
+        <v>2367</v>
       </c>
       <c r="M41" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="N41">
-        <v>1.17585824591855</v>
+        <v>1.2095971735256099</v>
       </c>
       <c r="O41" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P41" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="Q41">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -20277,19 +20300,19 @@
       </c>
       <c r="H42" s="24"/>
       <c r="L42" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="M42" t="s">
-        <v>1052</v>
+        <v>92</v>
       </c>
       <c r="N42">
-        <v>1.1609242185147699</v>
+        <v>1.1684407503059</v>
       </c>
       <c r="O42" t="s">
-        <v>1053</v>
+        <v>93</v>
       </c>
       <c r="P42" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="Q42">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -20320,23 +20343,23 @@
       </c>
       <c r="H43" s="24"/>
       <c r="L43" t="s">
-        <v>2374</v>
+        <v>1824</v>
       </c>
       <c r="M43" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="N43">
-        <v>1.0997909299940201</v>
+        <v>1.1684407503059</v>
       </c>
       <c r="O43" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="P43" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="Q43">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -20363,19 +20386,19 @@
       </c>
       <c r="H44" s="24"/>
       <c r="L44" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
       <c r="M44" t="s">
-        <v>104</v>
+        <v>1052</v>
       </c>
       <c r="N44">
-        <v>1.0997909299940201</v>
+        <v>1.1499895487564</v>
       </c>
       <c r="O44" t="s">
-        <v>105</v>
+        <v>1053</v>
       </c>
       <c r="P44" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="Q44">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -20406,19 +20429,19 @@
       </c>
       <c r="H45" s="24"/>
       <c r="L45" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="M45" t="s">
-        <v>352</v>
+        <v>102</v>
       </c>
       <c r="N45">
-        <v>1.0381358142406401</v>
+        <v>1.09494022622396</v>
       </c>
       <c r="O45" t="s">
-        <v>353</v>
+        <v>103</v>
       </c>
       <c r="P45" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="Q45">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -20449,19 +20472,19 @@
       </c>
       <c r="H46" s="24"/>
       <c r="L46" t="s">
-        <v>2388</v>
+        <v>2376</v>
       </c>
       <c r="M46" t="s">
-        <v>1020</v>
+        <v>104</v>
       </c>
       <c r="N46">
-        <v>0.631752195053499</v>
+        <v>1.09494022622396</v>
       </c>
       <c r="O46" t="s">
-        <v>882</v>
+        <v>105</v>
       </c>
       <c r="P46" t="s">
-        <v>2389</v>
+        <v>2377</v>
       </c>
       <c r="Q46">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -20492,23 +20515,23 @@
       </c>
       <c r="H47" s="24"/>
       <c r="L47" t="s">
-        <v>1996</v>
+        <v>2378</v>
       </c>
       <c r="M47" t="s">
-        <v>1007</v>
+        <v>352</v>
       </c>
       <c r="N47">
-        <v>0.631752195051968</v>
+        <v>1.0362584560685799</v>
       </c>
       <c r="O47" t="s">
-        <v>870</v>
+        <v>353</v>
       </c>
       <c r="P47" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="Q47">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -20535,19 +20558,19 @@
       </c>
       <c r="H48" s="24"/>
       <c r="L48" t="s">
-        <v>2381</v>
+        <v>2388</v>
       </c>
       <c r="M48" t="s">
-        <v>2040</v>
+        <v>1020</v>
       </c>
       <c r="N48">
-        <v>0.631752195051968</v>
+        <v>0.64947286910628599</v>
       </c>
       <c r="O48" t="s">
-        <v>2382</v>
+        <v>882</v>
       </c>
       <c r="P48" t="s">
-        <v>2383</v>
+        <v>2389</v>
       </c>
       <c r="Q48">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -20578,23 +20601,23 @@
       </c>
       <c r="H49" s="24"/>
       <c r="L49" t="s">
-        <v>2384</v>
+        <v>1996</v>
       </c>
       <c r="M49" t="s">
-        <v>1901</v>
+        <v>1007</v>
       </c>
       <c r="N49">
-        <v>0.631752195051968</v>
+        <v>0.64947286910262003</v>
       </c>
       <c r="O49" t="s">
-        <v>2382</v>
+        <v>870</v>
       </c>
       <c r="P49" t="s">
-        <v>2385</v>
+        <v>2380</v>
       </c>
       <c r="Q49">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -20621,19 +20644,19 @@
       </c>
       <c r="H50" s="24"/>
       <c r="L50" t="s">
-        <v>2386</v>
+        <v>2381</v>
       </c>
       <c r="M50" t="s">
-        <v>881</v>
+        <v>2040</v>
       </c>
       <c r="N50">
-        <v>0.631752195051968</v>
+        <v>0.64947286910261903</v>
       </c>
       <c r="O50" t="s">
-        <v>882</v>
+        <v>2382</v>
       </c>
       <c r="P50" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
       <c r="Q50">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -20664,19 +20687,19 @@
       </c>
       <c r="H51" s="24"/>
       <c r="L51" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
       <c r="M51" t="s">
-        <v>85</v>
+        <v>881</v>
       </c>
       <c r="N51">
-        <v>0.63175219503435198</v>
+        <v>0.64947286910261903</v>
       </c>
       <c r="O51" t="s">
-        <v>86</v>
+        <v>882</v>
       </c>
       <c r="P51" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="Q51">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -20707,19 +20730,19 @@
       </c>
       <c r="H52" s="24"/>
       <c r="L52" t="s">
-        <v>2392</v>
+        <v>2384</v>
       </c>
       <c r="M52" t="s">
-        <v>120</v>
+        <v>1901</v>
       </c>
       <c r="N52">
-        <v>0.52206429407742405</v>
+        <v>0.64947286910261903</v>
       </c>
       <c r="O52" t="s">
-        <v>121</v>
+        <v>2382</v>
       </c>
       <c r="P52" t="s">
-        <v>2393</v>
+        <v>2385</v>
       </c>
       <c r="Q52">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -20750,19 +20773,19 @@
       </c>
       <c r="H53" s="24"/>
       <c r="L53" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
       <c r="M53" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="N53">
-        <v>0.52206429407742405</v>
+        <v>0.64947286908278701</v>
       </c>
       <c r="O53" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="P53" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
       <c r="Q53">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -20793,23 +20816,23 @@
       </c>
       <c r="H54" s="24"/>
       <c r="L54" t="s">
-        <v>1972</v>
+        <v>2392</v>
       </c>
       <c r="M54" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N54">
-        <v>0.52206429407742405</v>
+        <v>0.53670821816813297</v>
       </c>
       <c r="O54" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="Q54">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -20836,19 +20859,19 @@
       </c>
       <c r="H55" s="24"/>
       <c r="L55" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
       <c r="M55" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="N55">
-        <v>0.44531351606153602</v>
+        <v>0.53670821816813297</v>
       </c>
       <c r="O55" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="Q55">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -20879,23 +20902,23 @@
       </c>
       <c r="H56" s="24"/>
       <c r="L56" t="s">
-        <v>2399</v>
+        <v>1972</v>
       </c>
       <c r="M56" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="N56">
-        <v>0.44531351606153602</v>
+        <v>0.53670821816813297</v>
       </c>
       <c r="O56" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="Q56">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -20922,23 +20945,23 @@
       </c>
       <c r="H57" s="24"/>
       <c r="L57" t="s">
-        <v>1754</v>
+        <v>2397</v>
       </c>
       <c r="M57" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="N57">
-        <v>0.31605242286212099</v>
+        <v>0.456738807061629</v>
       </c>
       <c r="O57" t="s">
-        <v>1756</v>
+        <v>172</v>
       </c>
       <c r="P57" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="Q57">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -20965,19 +20988,19 @@
       </c>
       <c r="H58" s="24"/>
       <c r="L58" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="M58" t="s">
-        <v>1036</v>
+        <v>173</v>
       </c>
       <c r="N58">
-        <v>0.31338233886130501</v>
+        <v>0.456738807061629</v>
       </c>
       <c r="O58" t="s">
-        <v>882</v>
+        <v>174</v>
       </c>
       <c r="P58" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="Q58">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -21008,23 +21031,23 @@
       </c>
       <c r="H59" s="24"/>
       <c r="L59" t="s">
-        <v>2404</v>
+        <v>1754</v>
       </c>
       <c r="M59" t="s">
-        <v>2405</v>
+        <v>131</v>
       </c>
       <c r="N59">
-        <v>0.28868017968772403</v>
+        <v>0.324917705819664</v>
       </c>
       <c r="O59" t="s">
-        <v>2406</v>
+        <v>1756</v>
       </c>
       <c r="P59" t="s">
-        <v>2407</v>
+        <v>2401</v>
       </c>
       <c r="Q59">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -21051,23 +21074,23 @@
       </c>
       <c r="H60" s="24"/>
       <c r="L60" t="s">
-        <v>2076</v>
+        <v>2402</v>
       </c>
       <c r="M60" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="N60">
-        <v>0.26264247165557902</v>
+        <v>0.32217272585748402</v>
       </c>
       <c r="O60" t="s">
-        <v>1048</v>
+        <v>882</v>
       </c>
       <c r="P60" t="s">
-        <v>2409</v>
+        <v>2403</v>
       </c>
       <c r="Q60">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -21094,19 +21117,19 @@
       </c>
       <c r="H61" s="24"/>
       <c r="L61" t="s">
-        <v>2410</v>
+        <v>2404</v>
       </c>
       <c r="M61" t="s">
-        <v>2036</v>
+        <v>2405</v>
       </c>
       <c r="N61">
-        <v>0.23483084697831699</v>
+        <v>0.29676466281498898</v>
       </c>
       <c r="O61" t="s">
-        <v>2382</v>
+        <v>2406</v>
       </c>
       <c r="P61" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="Q61">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -21137,23 +21160,23 @@
       </c>
       <c r="H62" s="24"/>
       <c r="L62" t="s">
-        <v>2412</v>
+        <v>2076</v>
       </c>
       <c r="M62" t="s">
-        <v>19</v>
+        <v>1047</v>
       </c>
       <c r="N62">
-        <v>0.20677177330187599</v>
+        <v>0.27000960336962498</v>
       </c>
       <c r="O62" t="s">
-        <v>2413</v>
+        <v>1048</v>
       </c>
       <c r="P62" t="s">
-        <v>2414</v>
+        <v>2409</v>
       </c>
       <c r="Q62">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -21180,23 +21203,23 @@
       </c>
       <c r="H63" s="24"/>
       <c r="L63" t="s">
-        <v>2015</v>
+        <v>2410</v>
       </c>
       <c r="M63" t="s">
-        <v>42</v>
+        <v>2036</v>
       </c>
       <c r="N63">
-        <v>0.18960092532175099</v>
+        <v>0.24141786152125599</v>
       </c>
       <c r="O63" t="s">
-        <v>2009</v>
+        <v>2382</v>
       </c>
       <c r="P63" t="s">
-        <v>2408</v>
+        <v>2411</v>
       </c>
       <c r="Q63">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -21223,19 +21246,19 @@
       </c>
       <c r="H64" s="24"/>
       <c r="L64" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="M64" t="s">
-        <v>2417</v>
+        <v>19</v>
       </c>
       <c r="N64">
-        <v>0.116662194772553</v>
+        <v>0.212555616893951</v>
       </c>
       <c r="O64" t="s">
-        <v>2418</v>
+        <v>2413</v>
       </c>
       <c r="P64" t="s">
-        <v>2419</v>
+        <v>2414</v>
       </c>
       <c r="Q64">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -21266,23 +21289,23 @@
       </c>
       <c r="H65" s="24"/>
       <c r="L65" t="s">
-        <v>2420</v>
+        <v>2015</v>
       </c>
       <c r="M65" t="s">
-        <v>953</v>
+        <v>42</v>
       </c>
       <c r="N65">
-        <v>0.111325207686039</v>
+        <v>0.194919238773437</v>
       </c>
       <c r="O65" t="s">
-        <v>464</v>
+        <v>2009</v>
       </c>
       <c r="P65" t="s">
-        <v>2421</v>
+        <v>2408</v>
       </c>
       <c r="Q65">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -21309,19 +21332,19 @@
       </c>
       <c r="H66" s="24"/>
       <c r="L66" t="s">
-        <v>2422</v>
+        <v>2416</v>
       </c>
       <c r="M66" t="s">
-        <v>108</v>
+        <v>2417</v>
       </c>
       <c r="N66">
-        <v>9.9661196357921505E-2</v>
+        <v>0.11990028072280901</v>
       </c>
       <c r="O66" t="s">
-        <v>109</v>
+        <v>2418</v>
       </c>
       <c r="P66" t="s">
-        <v>2423</v>
+        <v>2419</v>
       </c>
       <c r="Q66">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -21352,19 +21375,19 @@
       </c>
       <c r="H67" s="24"/>
       <c r="L67" t="s">
-        <v>2424</v>
+        <v>2420</v>
       </c>
       <c r="M67" t="s">
-        <v>110</v>
+        <v>953</v>
       </c>
       <c r="N67">
-        <v>4.7023827138873202E-2</v>
+        <v>0.11147287996979501</v>
       </c>
       <c r="O67" t="s">
-        <v>86</v>
+        <v>464</v>
       </c>
       <c r="P67" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="Q67">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -21395,19 +21418,19 @@
       </c>
       <c r="H68" s="24"/>
       <c r="L68" t="s">
-        <v>2426</v>
+        <v>2422</v>
       </c>
       <c r="M68" t="s">
-        <v>2427</v>
+        <v>108</v>
       </c>
       <c r="N68">
-        <v>4.7023827138873202E-2</v>
+        <v>0.102421271752593</v>
       </c>
       <c r="O68" t="s">
-        <v>2428</v>
+        <v>109</v>
       </c>
       <c r="P68" t="s">
-        <v>2429</v>
+        <v>2423</v>
       </c>
       <c r="Q68">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -21438,19 +21461,19 @@
       </c>
       <c r="H69" s="24"/>
       <c r="L69" t="s">
-        <v>2430</v>
+        <v>2424</v>
       </c>
       <c r="M69" t="s">
-        <v>2431</v>
+        <v>110</v>
       </c>
       <c r="N69">
-        <v>4.7023827138873202E-2</v>
+        <v>4.8303917799353301E-2</v>
       </c>
       <c r="O69" t="s">
-        <v>2428</v>
+        <v>86</v>
       </c>
       <c r="P69" t="s">
-        <v>2432</v>
+        <v>2425</v>
       </c>
       <c r="Q69">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -21481,19 +21504,19 @@
       </c>
       <c r="H70" s="24"/>
       <c r="L70" t="s">
-        <v>2433</v>
+        <v>2426</v>
       </c>
       <c r="M70" t="s">
-        <v>111</v>
+        <v>2427</v>
       </c>
       <c r="N70">
-        <v>4.7023827138873202E-2</v>
+        <v>4.8303917799353301E-2</v>
       </c>
       <c r="O70" t="s">
-        <v>112</v>
+        <v>2428</v>
       </c>
       <c r="P70" t="s">
-        <v>2434</v>
+        <v>2429</v>
       </c>
       <c r="Q70">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -21524,19 +21547,19 @@
       </c>
       <c r="H71" s="24"/>
       <c r="L71" t="s">
-        <v>2439</v>
+        <v>2430</v>
       </c>
       <c r="M71" t="s">
-        <v>2440</v>
+        <v>2431</v>
       </c>
       <c r="N71">
-        <v>4.6211448588400303E-2</v>
+        <v>4.8303917799353301E-2</v>
       </c>
       <c r="O71" t="s">
-        <v>2441</v>
+        <v>2428</v>
       </c>
       <c r="P71" t="s">
-        <v>2442</v>
+        <v>2432</v>
       </c>
       <c r="Q71">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -21567,19 +21590,19 @@
       </c>
       <c r="H72" s="24"/>
       <c r="L72" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="M72" t="s">
-        <v>2436</v>
+        <v>111</v>
       </c>
       <c r="N72">
-        <v>3.6075167656824697E-2</v>
+        <v>4.8303917799353301E-2</v>
       </c>
       <c r="O72" t="s">
-        <v>2437</v>
+        <v>112</v>
       </c>
       <c r="P72" t="s">
-        <v>2438</v>
+        <v>2434</v>
       </c>
       <c r="Q72">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -21610,23 +21633,23 @@
       </c>
       <c r="H73" s="24"/>
       <c r="L73" t="s">
-        <v>1995</v>
+        <v>2439</v>
       </c>
       <c r="M73" t="s">
-        <v>869</v>
+        <v>2440</v>
       </c>
       <c r="N73" s="1">
-        <v>0</v>
+        <v>4.6793501262688303E-2</v>
       </c>
       <c r="O73" t="s">
-        <v>870</v>
+        <v>2441</v>
       </c>
       <c r="P73" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="Q73">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -21653,19 +21676,19 @@
       </c>
       <c r="H74" s="24"/>
       <c r="L74" t="s">
-        <v>2444</v>
+        <v>2435</v>
       </c>
       <c r="M74" t="s">
-        <v>1067</v>
+        <v>2436</v>
       </c>
       <c r="N74" s="1">
-        <v>0</v>
+        <v>3.7057212037354903E-2</v>
       </c>
       <c r="O74" t="s">
-        <v>2445</v>
+        <v>2437</v>
       </c>
       <c r="P74" t="s">
-        <v>2446</v>
+        <v>2438</v>
       </c>
       <c r="Q74">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -21696,23 +21719,23 @@
       </c>
       <c r="H75" s="24"/>
       <c r="L75" t="s">
-        <v>2010</v>
+        <v>1995</v>
       </c>
       <c r="M75" t="s">
-        <v>26</v>
+        <v>869</v>
       </c>
       <c r="N75" s="1">
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>2009</v>
+        <v>870</v>
       </c>
       <c r="P75" t="s">
-        <v>2415</v>
+        <v>2443</v>
       </c>
       <c r="Q75">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -21739,23 +21762,23 @@
       </c>
       <c r="H76" s="24"/>
       <c r="L76" t="s">
-        <v>1759</v>
+        <v>2444</v>
       </c>
       <c r="M76" t="s">
-        <v>118</v>
+        <v>1067</v>
       </c>
       <c r="N76" s="1">
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>1756</v>
+        <v>2445</v>
       </c>
       <c r="P76" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="Q76">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -21782,23 +21805,23 @@
       </c>
       <c r="H77" s="24"/>
       <c r="L77" t="s">
-        <v>2448</v>
+        <v>2010</v>
       </c>
       <c r="M77" t="s">
-        <v>2436</v>
+        <v>26</v>
       </c>
       <c r="N77" s="1">
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>2437</v>
+        <v>2009</v>
       </c>
       <c r="P77" t="s">
-        <v>2449</v>
+        <v>2415</v>
       </c>
       <c r="Q77">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -21825,23 +21848,23 @@
       </c>
       <c r="H78" s="24"/>
       <c r="L78" t="s">
-        <v>2450</v>
+        <v>1759</v>
       </c>
       <c r="M78" t="s">
-        <v>2451</v>
+        <v>118</v>
       </c>
       <c r="N78" s="1">
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>2437</v>
+        <v>1756</v>
       </c>
       <c r="P78" t="s">
-        <v>2452</v>
+        <v>2447</v>
       </c>
       <c r="Q78">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -21868,23 +21891,23 @@
       </c>
       <c r="H79" s="24"/>
       <c r="L79" t="s">
-        <v>2033</v>
+        <v>2448</v>
       </c>
       <c r="M79" t="s">
-        <v>1050</v>
+        <v>2436</v>
       </c>
       <c r="N79" s="1">
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>482</v>
+        <v>2437</v>
       </c>
       <c r="P79" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="Q79">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -21911,19 +21934,19 @@
       </c>
       <c r="H80" s="24"/>
       <c r="L80" t="s">
-        <v>2454</v>
+        <v>2450</v>
       </c>
       <c r="M80" t="s">
-        <v>106</v>
+        <v>2451</v>
       </c>
       <c r="N80" s="1">
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>107</v>
+        <v>2437</v>
       </c>
       <c r="P80" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="Q80">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
@@ -21953,7 +21976,25 @@
         <v>8.6257E-2</v>
       </c>
       <c r="H81" s="24"/>
-      <c r="N81" s="1"/>
+      <c r="L81" t="s">
+        <v>2033</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0</v>
+      </c>
+      <c r="O81" t="s">
+        <v>482</v>
+      </c>
+      <c r="P81" t="s">
+        <v>2453</v>
+      </c>
+      <c r="Q81" s="33">
+        <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="82" spans="1:22">
       <c r="A82" s="24" t="s">
@@ -21978,7 +22019,25 @@
         <v>8.6257E-2</v>
       </c>
       <c r="H82" s="24"/>
-      <c r="N82" s="1"/>
+      <c r="L82" t="s">
+        <v>2454</v>
+      </c>
+      <c r="M82" t="s">
+        <v>106</v>
+      </c>
+      <c r="N82" s="1">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>107</v>
+      </c>
+      <c r="P82" t="s">
+        <v>2455</v>
+      </c>
+      <c r="Q82" s="33">
+        <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="24" t="s">
@@ -30363,7 +30422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA629B35-2757-48F7-9C36-0B4946EA8231}">
   <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -36295,7 +36354,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ecYaliGEM/output/enzymeUsage vs FSEOF.xlsx
+++ b/ecYaliGEM/output/enzymeUsage vs FSEOF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jusabe\Documents\GECKO\ecYaliGEM\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE7A5E5-BFFC-4DD9-81E6-1F92FF33AACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E934EB0-DBB3-4160-AD79-29F2E6040BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2520" windowWidth="14400" windowHeight="15600" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3650" yWindow="14290" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ecYali_Exp" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="prot_pool plot" sheetId="4" r:id="rId5"/>
     <sheet name="iYali FSEOF" sheetId="7" r:id="rId6"/>
     <sheet name="iYali" sheetId="5" r:id="rId7"/>
+    <sheet name="iYali curation" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="2465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4454" uniqueCount="2479">
   <si>
     <t>'YALI0E02728g'</t>
   </si>
@@ -7437,6 +7438,48 @@
   </si>
   <si>
     <t>'1-acylglycerophosphoethanolamine[lp] + acyl-CoA[lp] + 0.001666 prot_Q6C8W4[c] =&gt; phosphatidylethanolamine[lp] + coenzyme A[lp]'</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>1.2.1.4</t>
+  </si>
+  <si>
+    <t>y000175</t>
+  </si>
+  <si>
+    <t>y000174</t>
+  </si>
+  <si>
+    <t>1.2.1.3</t>
+  </si>
+  <si>
+    <t>y000185</t>
+  </si>
+  <si>
+    <t>y000176</t>
+  </si>
+  <si>
+    <t>y000172</t>
+  </si>
+  <si>
+    <t>y000177</t>
+  </si>
+  <si>
+    <t>Putative only. Use lowest kcat possible.</t>
+  </si>
+  <si>
+    <t>y000178</t>
+  </si>
+  <si>
+    <t>y000201</t>
+  </si>
+  <si>
+    <t>Use lowest kcat possible.</t>
+  </si>
+  <si>
+    <t>Unlikely to happen, use lowest possible kcat.</t>
   </si>
 </sst>
 </file>
@@ -7449,7 +7492,7 @@
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7543,7 +7586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7591,7 +7634,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14410,6 +14452,22 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{81D9C569-FB97-45A2-9E77-54FB380F9CBA}" name="Table10" displayName="Table10" ref="A1:D14" totalsRowShown="0">
+  <autoFilter ref="A1:D14" xr:uid="{81D9C569-FB97-45A2-9E77-54FB380F9CBA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D14">
+    <sortCondition ref="B1:B14"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7A2F00DC-959F-4FFF-8E9C-7AEBC5CC72E2}" name="Gene"/>
+    <tableColumn id="2" xr3:uid="{54CB5FF4-8655-4126-BD74-6F414EB0AA5E}" name="rxn"/>
+    <tableColumn id="3" xr3:uid="{837B6799-BFC0-44FA-996C-8D852E88215D}" name="EC"/>
+    <tableColumn id="4" xr3:uid="{77AC9700-6792-4F1D-B9F4-B06B76537615}" name="Comments"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E185F078-DDBC-4425-9C2C-B90358679AAC}" name="Tabela2" displayName="Tabela2" ref="A73:G128" totalsRowShown="0" dataDxfId="30">
   <autoFilter ref="A73:G128" xr:uid="{E185F078-DDBC-4425-9C2C-B90358679AAC}"/>
@@ -14837,7 +14895,7 @@
       <selection activeCell="L137" sqref="L137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
@@ -14854,7 +14912,7 @@
     <col min="16" max="16" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>351</v>
       </c>
@@ -14876,7 +14934,7 @@
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -14926,7 +14984,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1464</v>
       </c>
@@ -14974,7 +15032,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1231</v>
       </c>
@@ -15022,7 +15080,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1232</v>
       </c>
@@ -15070,7 +15128,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1234</v>
       </c>
@@ -15118,7 +15176,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1304</v>
       </c>
@@ -15166,7 +15224,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1397</v>
       </c>
@@ -15214,7 +15272,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1205</v>
       </c>
@@ -15262,7 +15320,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1443</v>
       </c>
@@ -15310,7 +15368,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1445</v>
       </c>
@@ -15358,7 +15416,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1453</v>
       </c>
@@ -15406,7 +15464,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1456</v>
       </c>
@@ -15454,7 +15512,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1458</v>
       </c>
@@ -15502,7 +15560,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1459</v>
       </c>
@@ -15550,7 +15608,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1475</v>
       </c>
@@ -15598,7 +15656,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1477</v>
       </c>
@@ -15625,7 +15683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1479</v>
       </c>
@@ -15652,7 +15710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1481</v>
       </c>
@@ -15679,7 +15737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1483</v>
       </c>
@@ -15706,7 +15764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1485</v>
       </c>
@@ -15733,7 +15791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1487</v>
       </c>
@@ -15760,7 +15818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1488</v>
       </c>
@@ -15787,7 +15845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1246</v>
       </c>
@@ -15814,7 +15872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1247</v>
       </c>
@@ -15841,7 +15899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1470</v>
       </c>
@@ -15868,7 +15926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1489</v>
       </c>
@@ -15895,7 +15953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1325</v>
       </c>
@@ -15922,7 +15980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1432</v>
       </c>
@@ -15949,7 +16007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1440</v>
       </c>
@@ -15976,7 +16034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1447</v>
       </c>
@@ -16003,7 +16061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1411</v>
       </c>
@@ -16030,7 +16088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1415</v>
       </c>
@@ -16057,7 +16115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1417</v>
       </c>
@@ -16084,7 +16142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1185</v>
       </c>
@@ -16111,7 +16169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1206</v>
       </c>
@@ -16138,7 +16196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1419</v>
       </c>
@@ -16165,7 +16223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1420</v>
       </c>
@@ -16192,7 +16250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1422</v>
       </c>
@@ -16219,7 +16277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1423</v>
       </c>
@@ -16246,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1425</v>
       </c>
@@ -16273,7 +16331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1426</v>
       </c>
@@ -16300,7 +16358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1428</v>
       </c>
@@ -16327,7 +16385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1429</v>
       </c>
@@ -16354,7 +16412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1431</v>
       </c>
@@ -16381,7 +16439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1508</v>
       </c>
@@ -16408,7 +16466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1473</v>
       </c>
@@ -16435,7 +16493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1491</v>
       </c>
@@ -16462,7 +16520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1404</v>
       </c>
@@ -16489,7 +16547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1408</v>
       </c>
@@ -16516,7 +16574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1467</v>
       </c>
@@ -16543,7 +16601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1492</v>
       </c>
@@ -16570,7 +16628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1223</v>
       </c>
@@ -16597,7 +16655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1198</v>
       </c>
@@ -16624,7 +16682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1201</v>
       </c>
@@ -16651,7 +16709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1288</v>
       </c>
@@ -16678,7 +16736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1291</v>
       </c>
@@ -16705,7 +16763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1292</v>
       </c>
@@ -16732,7 +16790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1297</v>
       </c>
@@ -16759,7 +16817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1506</v>
       </c>
@@ -16786,7 +16844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1469</v>
       </c>
@@ -16813,7 +16871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>1510</v>
       </c>
@@ -16840,7 +16898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>284</v>
       </c>
@@ -16867,7 +16925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>288</v>
       </c>
@@ -16894,7 +16952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1514</v>
       </c>
@@ -16921,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1516</v>
       </c>
@@ -16948,7 +17006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1518</v>
       </c>
@@ -16975,7 +17033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1520</v>
       </c>
@@ -17002,7 +17060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1449</v>
       </c>
@@ -17029,12 +17087,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F70" s="2"/>
       <c r="G70" s="1"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
         <v>371</v>
       </c>
@@ -17044,7 +17102,7 @@
       <c r="E72" s="29"/>
       <c r="F72" s="29"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>78</v>
       </c>
@@ -17076,7 +17134,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -17112,7 +17170,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>1524</v>
       </c>
@@ -17148,7 +17206,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1528</v>
       </c>
@@ -17184,7 +17242,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1389</v>
       </c>
@@ -17217,7 +17275,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1163</v>
       </c>
@@ -17250,7 +17308,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1536</v>
       </c>
@@ -17283,7 +17341,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1540</v>
       </c>
@@ -17316,7 +17374,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1544</v>
       </c>
@@ -17349,7 +17407,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1548</v>
       </c>
@@ -17382,7 +17440,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1551</v>
       </c>
@@ -17415,7 +17473,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1187</v>
       </c>
@@ -17448,7 +17506,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>256</v>
       </c>
@@ -17481,7 +17539,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>225</v>
       </c>
@@ -17514,7 +17572,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>252</v>
       </c>
@@ -17547,7 +17605,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1558</v>
       </c>
@@ -17580,7 +17638,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>237</v>
       </c>
@@ -17613,7 +17671,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>249</v>
       </c>
@@ -17646,7 +17704,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>260</v>
       </c>
@@ -17679,7 +17737,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1369</v>
       </c>
@@ -17712,7 +17770,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>1567</v>
       </c>
@@ -17745,7 +17803,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1362</v>
       </c>
@@ -17778,7 +17836,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1574</v>
       </c>
@@ -17811,7 +17869,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1314</v>
       </c>
@@ -17844,7 +17902,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1385</v>
       </c>
@@ -17877,7 +17935,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1386</v>
       </c>
@@ -17910,7 +17968,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1387</v>
       </c>
@@ -17943,7 +18001,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>1172</v>
       </c>
@@ -17976,7 +18034,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1173</v>
       </c>
@@ -18006,7 +18064,7 @@
         <v>1.36437279273912E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1375</v>
       </c>
@@ -18036,7 +18094,7 @@
         <v>1.36437279273912E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1443</v>
       </c>
@@ -18066,7 +18124,7 @@
         <v>1.36437279273912E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1380</v>
       </c>
@@ -18096,7 +18154,7 @@
         <v>1.36437279273912E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1594</v>
       </c>
@@ -18129,7 +18187,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>1342</v>
       </c>
@@ -18159,7 +18217,7 @@
         <v>2.0292459285228799E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1315</v>
       </c>
@@ -18189,7 +18247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1603</v>
       </c>
@@ -18222,7 +18280,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1607</v>
       </c>
@@ -18255,7 +18313,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1610</v>
       </c>
@@ -18285,7 +18343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1614</v>
       </c>
@@ -18318,7 +18376,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>1618</v>
       </c>
@@ -18348,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>1621</v>
       </c>
@@ -18378,7 +18436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1309</v>
       </c>
@@ -18408,7 +18466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1625</v>
       </c>
@@ -18438,7 +18496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1628</v>
       </c>
@@ -18468,7 +18526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1630</v>
       </c>
@@ -18498,7 +18556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1634</v>
       </c>
@@ -18531,7 +18589,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1636</v>
       </c>
@@ -18561,7 +18619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1639</v>
       </c>
@@ -18591,7 +18649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1641</v>
       </c>
@@ -18621,7 +18679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>1643</v>
       </c>
@@ -18645,7 +18703,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1645</v>
       </c>
@@ -18669,7 +18727,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1649</v>
       </c>
@@ -18693,7 +18751,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1155</v>
       </c>
@@ -18717,7 +18775,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1655</v>
       </c>
@@ -18741,7 +18799,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1381</v>
       </c>
@@ -18765,7 +18823,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1179</v>
       </c>
@@ -18789,7 +18847,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="130" spans="3:4">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130">
         <v>0.23150023150023127</v>
       </c>
@@ -18797,7 +18855,7 @@
         <v>5.7344931610714401E-4</v>
       </c>
     </row>
-    <row r="131" spans="3:4">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131">
         <v>0.25565430762641872</v>
       </c>
@@ -18805,7 +18863,7 @@
         <v>6.1317754330048101E-4</v>
       </c>
     </row>
-    <row r="132" spans="3:4">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132">
         <v>0.27980838375260503</v>
       </c>
@@ -18813,7 +18871,7 @@
         <v>6.5290577151699803E-4</v>
       </c>
     </row>
-    <row r="133" spans="3:4">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133">
         <v>0.30396245987879139</v>
       </c>
@@ -18821,7 +18879,7 @@
         <v>6.9267998571831402E-4</v>
       </c>
     </row>
-    <row r="134" spans="3:4">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134">
         <v>0.32811653600497881</v>
       </c>
@@ -18829,7 +18887,7 @@
         <v>7.3323849426287801E-4</v>
       </c>
     </row>
-    <row r="135" spans="3:4">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135">
         <v>0.35227061213116517</v>
       </c>
@@ -18837,7 +18895,7 @@
         <v>7.7379700246638105E-4</v>
       </c>
     </row>
-    <row r="136" spans="3:4">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136">
         <v>0.37642468825735254</v>
       </c>
@@ -18845,7 +18903,7 @@
         <v>8.1435551237518699E-4</v>
       </c>
     </row>
-    <row r="137" spans="3:4">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137">
         <v>0.4005787643835389</v>
       </c>
@@ -18853,7 +18911,7 @@
         <v>8.5498184500920605E-4</v>
       </c>
     </row>
-    <row r="138" spans="3:4">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138">
         <v>0.42473284050972526</v>
       </c>
@@ -18861,7 +18919,7 @@
         <v>8.9564835514011098E-4</v>
       </c>
     </row>
-    <row r="139" spans="3:4">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139">
         <v>0.44888691663591263</v>
       </c>
@@ -18869,7 +18927,7 @@
         <v>9.3632031587276298E-4</v>
       </c>
     </row>
-    <row r="140" spans="3:4">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140">
         <v>0.47304099276209899</v>
       </c>
@@ -18877,7 +18935,7 @@
         <v>7.8954489390525905E-4</v>
       </c>
     </row>
-    <row r="141" spans="3:4">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141">
         <v>0.49719506888828646</v>
       </c>
@@ -18885,7 +18943,7 @@
         <v>8.1312833458469002E-4</v>
       </c>
     </row>
-    <row r="142" spans="3:4">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142">
         <v>0.52134914501447271</v>
       </c>
@@ -18893,7 +18951,7 @@
         <v>8.5090316179048397E-4</v>
       </c>
     </row>
-    <row r="143" spans="3:4">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143">
         <v>0.54550322114065908</v>
       </c>
@@ -18901,7 +18959,7 @@
         <v>7.2966510469996105E-4</v>
       </c>
     </row>
-    <row r="144" spans="3:4">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144">
         <v>0.56965729726684655</v>
       </c>
@@ -18909,7 +18967,7 @@
         <v>7.4775737209620296E-4</v>
       </c>
     </row>
-    <row r="145" spans="3:4">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145">
         <v>0.5938113733930328</v>
       </c>
@@ -18963,7 +19021,7 @@
       <selection activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
@@ -18983,7 +19041,7 @@
     <col min="17" max="17" width="48.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>351</v>
       </c>
@@ -18995,7 +19053,7 @@
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -19030,7 +19088,7 @@
       <c r="P2" s="31"/>
       <c r="Q2" s="31"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>1735</v>
       </c>
@@ -19075,7 +19133,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>1738</v>
       </c>
@@ -19120,7 +19178,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>1739</v>
       </c>
@@ -19165,7 +19223,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>1741</v>
       </c>
@@ -19189,7 +19247,7 @@
       </c>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>1742</v>
       </c>
@@ -19213,7 +19271,7 @@
       </c>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>1745</v>
       </c>
@@ -19237,7 +19295,7 @@
       </c>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>1747</v>
       </c>
@@ -19262,7 +19320,7 @@
       <c r="H9" s="24"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>1749</v>
       </c>
@@ -19286,7 +19344,7 @@
       </c>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>1750</v>
       </c>
@@ -19316,7 +19374,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>1752</v>
       </c>
@@ -19346,7 +19404,7 @@
         <v>6.2475352566921402E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>1754</v>
       </c>
@@ -19376,7 +19434,7 @@
         <v>6.3223458388894801E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>1757</v>
       </c>
@@ -19406,7 +19464,7 @@
         <v>6.3971564028888496E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>1758</v>
       </c>
@@ -19436,7 +19494,7 @@
         <v>6.4719669555195398E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>1759</v>
       </c>
@@ -19466,7 +19524,7 @@
         <v>6.54677750668563E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>1760</v>
       </c>
@@ -19496,7 +19554,7 @@
         <v>6.6198258336929599E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>1762</v>
       </c>
@@ -19526,7 +19584,7 @@
         <v>6.6662452624488002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>1764</v>
       </c>
@@ -19556,7 +19614,7 @@
         <v>6.7126646844814996E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>1765</v>
       </c>
@@ -19586,7 +19644,7 @@
         <v>6.7590841112311897E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>1767</v>
       </c>
@@ -19616,7 +19674,7 @@
         <v>6.8055035253336202E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>1769</v>
       </c>
@@ -19646,7 +19704,7 @@
         <v>6.85192294962218E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>1771</v>
       </c>
@@ -19676,7 +19734,7 @@
         <v>6.8983423762903099E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>1773</v>
       </c>
@@ -19706,7 +19764,7 @@
         <v>6.97171339281336E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>1775</v>
       </c>
@@ -19736,7 +19794,7 @@
         <v>7.0450433607548504E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>1777</v>
       </c>
@@ -19766,7 +19824,7 @@
         <v>7.1183733384897895E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>1778</v>
       </c>
@@ -19796,7 +19854,7 @@
         <v>7.1917033190065495E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>1779</v>
       </c>
@@ -19820,7 +19878,7 @@
       </c>
       <c r="H28" s="24"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>1780</v>
       </c>
@@ -19844,7 +19902,7 @@
       </c>
       <c r="H29" s="24"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>1781</v>
       </c>
@@ -19868,7 +19926,7 @@
       </c>
       <c r="H30" s="24"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>1782</v>
       </c>
@@ -19892,7 +19950,7 @@
       </c>
       <c r="H31" s="24"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>1783</v>
       </c>
@@ -19916,7 +19974,7 @@
       </c>
       <c r="H32" s="24"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>1784</v>
       </c>
@@ -19940,7 +19998,7 @@
       </c>
       <c r="H33" s="24"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>1786</v>
       </c>
@@ -19973,7 +20031,7 @@
       <c r="Q34" s="29"/>
       <c r="R34" s="29"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>1787</v>
       </c>
@@ -20018,7 +20076,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>1788</v>
       </c>
@@ -20061,7 +20119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>1792</v>
       </c>
@@ -20104,7 +20162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>1795</v>
       </c>
@@ -20147,7 +20205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>1796</v>
       </c>
@@ -20190,7 +20248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>1798</v>
       </c>
@@ -20233,7 +20291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>1799</v>
       </c>
@@ -20276,7 +20334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>1803</v>
       </c>
@@ -20319,7 +20377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>1805</v>
       </c>
@@ -20362,7 +20420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>1809</v>
       </c>
@@ -20405,7 +20463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>1811</v>
       </c>
@@ -20448,7 +20506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>1813</v>
       </c>
@@ -20491,7 +20549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>1815</v>
       </c>
@@ -20534,7 +20592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>1817</v>
       </c>
@@ -20577,7 +20635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>1819</v>
       </c>
@@ -20620,7 +20678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>1822</v>
       </c>
@@ -20663,7 +20721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>1824</v>
       </c>
@@ -20706,7 +20764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>1825</v>
       </c>
@@ -20749,7 +20807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>1827</v>
       </c>
@@ -20792,7 +20850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>1831</v>
       </c>
@@ -20835,7 +20893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
         <v>1833</v>
       </c>
@@ -20878,7 +20936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>1835</v>
       </c>
@@ -20921,7 +20979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>1837</v>
       </c>
@@ -20964,7 +21022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>1839</v>
       </c>
@@ -21007,7 +21065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>1841</v>
       </c>
@@ -21050,7 +21108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>1843</v>
       </c>
@@ -21093,7 +21151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>1845</v>
       </c>
@@ -21136,7 +21194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>1847</v>
       </c>
@@ -21179,7 +21237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>1849</v>
       </c>
@@ -21222,7 +21280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>1851</v>
       </c>
@@ -21265,7 +21323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>1853</v>
       </c>
@@ -21308,7 +21366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>1855</v>
       </c>
@@ -21351,7 +21409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>1857</v>
       </c>
@@ -21394,7 +21452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>1859</v>
       </c>
@@ -21437,7 +21495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>1863</v>
       </c>
@@ -21480,7 +21538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>1865</v>
       </c>
@@ -21523,7 +21581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>1867</v>
       </c>
@@ -21566,7 +21624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>1869</v>
       </c>
@@ -21609,7 +21667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
         <v>1871</v>
       </c>
@@ -21652,7 +21710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>1873</v>
       </c>
@@ -21695,7 +21753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>1874</v>
       </c>
@@ -21738,7 +21796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>1875</v>
       </c>
@@ -21781,7 +21839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>1879</v>
       </c>
@@ -21824,7 +21882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>1881</v>
       </c>
@@ -21867,7 +21925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="24" t="s">
         <v>1883</v>
       </c>
@@ -21910,7 +21968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
         <v>1886</v>
       </c>
@@ -21953,7 +22011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>1887</v>
       </c>
@@ -21991,12 +22049,12 @@
       <c r="P81" t="s">
         <v>2453</v>
       </c>
-      <c r="Q81" s="33">
+      <c r="Q81">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>1888</v>
       </c>
@@ -22034,12 +22092,12 @@
       <c r="P82" t="s">
         <v>2455</v>
       </c>
-      <c r="Q82" s="33">
+      <c r="Q82">
         <f>COUNTIF(Tabela4[geneID],Tabela5[[#This Row],[grRules]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
         <v>1889</v>
       </c>
@@ -22064,7 +22122,7 @@
       <c r="H83" s="24"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
         <v>1891</v>
       </c>
@@ -22089,7 +22147,7 @@
       <c r="H84" s="24"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="24" t="s">
         <v>1893</v>
       </c>
@@ -22114,7 +22172,7 @@
       <c r="H85" s="24"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
         <v>1894</v>
       </c>
@@ -22138,7 +22196,7 @@
       </c>
       <c r="H86" s="24"/>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="24" t="s">
         <v>1896</v>
       </c>
@@ -22162,7 +22220,7 @@
       </c>
       <c r="H87" s="24"/>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="24" t="s">
         <v>1899</v>
       </c>
@@ -22186,7 +22244,7 @@
       </c>
       <c r="H88" s="24"/>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
         <v>21</v>
       </c>
@@ -22210,7 +22268,7 @@
       </c>
       <c r="H89" s="24"/>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="24" t="s">
         <v>25</v>
       </c>
@@ -22234,7 +22292,7 @@
       </c>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="24" t="s">
         <v>27</v>
       </c>
@@ -22258,7 +22316,7 @@
       </c>
       <c r="H91" s="24"/>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="24" t="s">
         <v>28</v>
       </c>
@@ -22295,7 +22353,7 @@
       <c r="U92" s="32"/>
       <c r="V92" s="32"/>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="24" t="s">
         <v>37</v>
       </c>
@@ -22352,7 +22410,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="24" t="s">
         <v>39</v>
       </c>
@@ -22411,7 +22469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="24" t="s">
         <v>41</v>
       </c>
@@ -22470,7 +22528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="24" t="s">
         <v>43</v>
       </c>
@@ -22529,7 +22587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="24" t="s">
         <v>45</v>
       </c>
@@ -22588,7 +22646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="24" t="s">
         <v>47</v>
       </c>
@@ -22647,7 +22705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="24" t="s">
         <v>49</v>
       </c>
@@ -22706,7 +22764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="24" t="s">
         <v>50</v>
       </c>
@@ -22765,7 +22823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
         <v>1900</v>
       </c>
@@ -22824,7 +22882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="24" t="s">
         <v>1904</v>
       </c>
@@ -22883,7 +22941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="24" t="s">
         <v>1906</v>
       </c>
@@ -22942,7 +23000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
         <v>1908</v>
       </c>
@@ -23001,7 +23059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
         <v>1910</v>
       </c>
@@ -23060,7 +23118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
         <v>74</v>
       </c>
@@ -23119,7 +23177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="24" t="s">
         <v>76</v>
       </c>
@@ -23178,7 +23236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="24" t="s">
         <v>1911</v>
       </c>
@@ -23237,7 +23295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="24" t="s">
         <v>1913</v>
       </c>
@@ -23296,7 +23354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="24" t="s">
         <v>1916</v>
       </c>
@@ -23355,7 +23413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="24" t="s">
         <v>1918</v>
       </c>
@@ -23414,7 +23472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="24" t="s">
         <v>1920</v>
       </c>
@@ -23473,7 +23531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="24" t="s">
         <v>1922</v>
       </c>
@@ -23532,7 +23590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:22">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="24" t="s">
         <v>1924</v>
       </c>
@@ -23591,7 +23649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:22">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="24" t="s">
         <v>1926</v>
       </c>
@@ -23650,7 +23708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:22">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="24" t="s">
         <v>1928</v>
       </c>
@@ -23709,7 +23767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:22">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="24" t="s">
         <v>1929</v>
       </c>
@@ -23733,7 +23791,7 @@
       </c>
       <c r="H117" s="24"/>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="24" t="s">
         <v>1932</v>
       </c>
@@ -23757,7 +23815,7 @@
       </c>
       <c r="H118" s="24"/>
     </row>
-    <row r="119" spans="1:22">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="24" t="s">
         <v>1933</v>
       </c>
@@ -23781,7 +23839,7 @@
       </c>
       <c r="H119" s="24"/>
     </row>
-    <row r="120" spans="1:22">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="24" t="s">
         <v>1934</v>
       </c>
@@ -23805,7 +23863,7 @@
       </c>
       <c r="H120" s="24"/>
     </row>
-    <row r="121" spans="1:22">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="24" t="s">
         <v>1936</v>
       </c>
@@ -23829,7 +23887,7 @@
       </c>
       <c r="H121" s="24"/>
     </row>
-    <row r="122" spans="1:22">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="24" t="s">
         <v>1938</v>
       </c>
@@ -23853,7 +23911,7 @@
       </c>
       <c r="H122" s="24"/>
     </row>
-    <row r="123" spans="1:22">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="24" t="s">
         <v>1939</v>
       </c>
@@ -23877,7 +23935,7 @@
       </c>
       <c r="H123" s="24"/>
     </row>
-    <row r="124" spans="1:22">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="24" t="s">
         <v>1940</v>
       </c>
@@ -23901,7 +23959,7 @@
       </c>
       <c r="H124" s="24"/>
     </row>
-    <row r="125" spans="1:22">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="24" t="s">
         <v>1941</v>
       </c>
@@ -23925,7 +23983,7 @@
       </c>
       <c r="H125" s="24"/>
     </row>
-    <row r="126" spans="1:22">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="24" t="s">
         <v>1943</v>
       </c>
@@ -23949,7 +24007,7 @@
       </c>
       <c r="H126" s="24"/>
     </row>
-    <row r="127" spans="1:22">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="24" t="s">
         <v>1945</v>
       </c>
@@ -23973,7 +24031,7 @@
       </c>
       <c r="H127" s="24"/>
     </row>
-    <row r="128" spans="1:22">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="24" t="s">
         <v>1946</v>
       </c>
@@ -23997,7 +24055,7 @@
       </c>
       <c r="H128" s="24"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="24" t="s">
         <v>1948</v>
       </c>
@@ -24021,7 +24079,7 @@
       </c>
       <c r="H129" s="24"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="24" t="s">
         <v>1949</v>
       </c>
@@ -24045,7 +24103,7 @@
       </c>
       <c r="H130" s="24"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="24" t="s">
         <v>1951</v>
       </c>
@@ -24069,7 +24127,7 @@
       </c>
       <c r="H131" s="24"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="24" t="s">
         <v>1952</v>
       </c>
@@ -24093,7 +24151,7 @@
       </c>
       <c r="H132" s="24"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="24" t="s">
         <v>1954</v>
       </c>
@@ -24117,7 +24175,7 @@
       </c>
       <c r="H133" s="24"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="24" t="s">
         <v>1955</v>
       </c>
@@ -24141,7 +24199,7 @@
       </c>
       <c r="H134" s="24"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="24" t="s">
         <v>1957</v>
       </c>
@@ -24165,7 +24223,7 @@
       </c>
       <c r="H135" s="24"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="24" t="s">
         <v>1959</v>
       </c>
@@ -24189,7 +24247,7 @@
       </c>
       <c r="H136" s="24"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="24" t="s">
         <v>57</v>
       </c>
@@ -24213,7 +24271,7 @@
       </c>
       <c r="H137" s="24"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="24" t="s">
         <v>61</v>
       </c>
@@ -24237,7 +24295,7 @@
       </c>
       <c r="H138" s="24"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="24" t="s">
         <v>1963</v>
       </c>
@@ -24261,7 +24319,7 @@
       </c>
       <c r="H139" s="24"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="24" t="s">
         <v>64</v>
       </c>
@@ -24285,7 +24343,7 @@
       </c>
       <c r="H140" s="24"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="24" t="s">
         <v>1964</v>
       </c>
@@ -24309,7 +24367,7 @@
       </c>
       <c r="H141" s="24"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="24" t="s">
         <v>1966</v>
       </c>
@@ -24333,7 +24391,7 @@
       </c>
       <c r="H142" s="24"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="24" t="s">
         <v>1968</v>
       </c>
@@ -24357,7 +24415,7 @@
       </c>
       <c r="H143" s="24"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="24" t="s">
         <v>1970</v>
       </c>
@@ -24381,7 +24439,7 @@
       </c>
       <c r="H144" s="24"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="24" t="s">
         <v>1972</v>
       </c>
@@ -24405,7 +24463,7 @@
       </c>
       <c r="H145" s="24"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="24" t="s">
         <v>1974</v>
       </c>
@@ -24429,7 +24487,7 @@
       </c>
       <c r="H146" s="24"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="24" t="s">
         <v>1977</v>
       </c>
@@ -24453,7 +24511,7 @@
       </c>
       <c r="H147" s="24"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="24" t="s">
         <v>1978</v>
       </c>
@@ -24477,7 +24535,7 @@
       </c>
       <c r="H148" s="24"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="24" t="s">
         <v>1980</v>
       </c>
@@ -24501,7 +24559,7 @@
       </c>
       <c r="H149" s="24"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="24" t="s">
         <v>1981</v>
       </c>
@@ -24525,7 +24583,7 @@
       </c>
       <c r="H150" s="24"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="24" t="s">
         <v>1982</v>
       </c>
@@ -24549,7 +24607,7 @@
       </c>
       <c r="H151" s="24"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="24" t="s">
         <v>1983</v>
       </c>
@@ -24573,7 +24631,7 @@
       </c>
       <c r="H152" s="24"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="24" t="s">
         <v>1986</v>
       </c>
@@ -24597,7 +24655,7 @@
       </c>
       <c r="H153" s="24"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="24" t="s">
         <v>1990</v>
       </c>
@@ -24621,7 +24679,7 @@
       </c>
       <c r="H154" s="24"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="24" t="s">
         <v>1992</v>
       </c>
@@ -24645,7 +24703,7 @@
       </c>
       <c r="H155" s="24"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="24" t="s">
         <v>1995</v>
       </c>
@@ -24669,7 +24727,7 @@
       </c>
       <c r="H156" s="24"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="24" t="s">
         <v>1996</v>
       </c>
@@ -24693,7 +24751,7 @@
       </c>
       <c r="H157" s="24"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="24" t="s">
         <v>1997</v>
       </c>
@@ -24717,7 +24775,7 @@
       </c>
       <c r="H158" s="24"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="24" t="s">
         <v>1999</v>
       </c>
@@ -24741,7 +24799,7 @@
       </c>
       <c r="H159" s="24"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="24" t="s">
         <v>2001</v>
       </c>
@@ -24765,7 +24823,7 @@
       </c>
       <c r="H160" s="24"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="24" t="s">
         <v>2005</v>
       </c>
@@ -24789,7 +24847,7 @@
       </c>
       <c r="H161" s="24"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="24" t="s">
         <v>1789</v>
       </c>
@@ -24813,7 +24871,7 @@
       </c>
       <c r="H162" s="24"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="24" t="s">
         <v>2007</v>
       </c>
@@ -24837,7 +24895,7 @@
       </c>
       <c r="H163" s="24"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="24" t="s">
         <v>2010</v>
       </c>
@@ -24861,7 +24919,7 @@
       </c>
       <c r="H164" s="24"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="24" t="s">
         <v>2011</v>
       </c>
@@ -24885,7 +24943,7 @@
       </c>
       <c r="H165" s="24"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="24" t="s">
         <v>2012</v>
       </c>
@@ -24909,7 +24967,7 @@
       </c>
       <c r="H166" s="24"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="24" t="s">
         <v>2013</v>
       </c>
@@ -24933,7 +24991,7 @@
       </c>
       <c r="H167" s="24"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="24" t="s">
         <v>2014</v>
       </c>
@@ -24957,7 +25015,7 @@
       </c>
       <c r="H168" s="24"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="24" t="s">
         <v>2015</v>
       </c>
@@ -24981,7 +25039,7 @@
       </c>
       <c r="H169" s="24"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="24" t="s">
         <v>2016</v>
       </c>
@@ -25005,7 +25063,7 @@
       </c>
       <c r="H170" s="24"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="24" t="s">
         <v>2017</v>
       </c>
@@ -25029,7 +25087,7 @@
       </c>
       <c r="H171" s="24"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="24" t="s">
         <v>2018</v>
       </c>
@@ -25053,7 +25111,7 @@
       </c>
       <c r="H172" s="24"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="24" t="s">
         <v>2019</v>
       </c>
@@ -25077,7 +25135,7 @@
       </c>
       <c r="H173" s="24"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="24" t="s">
         <v>2020</v>
       </c>
@@ -25101,7 +25159,7 @@
       </c>
       <c r="H174" s="24"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="24" t="s">
         <v>2021</v>
       </c>
@@ -25125,7 +25183,7 @@
       </c>
       <c r="H175" s="24"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="24" t="s">
         <v>2025</v>
       </c>
@@ -25149,7 +25207,7 @@
       </c>
       <c r="H176" s="24"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="24" t="s">
         <v>2027</v>
       </c>
@@ -25173,7 +25231,7 @@
       </c>
       <c r="H177" s="24"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="24" t="s">
         <v>2029</v>
       </c>
@@ -25197,7 +25255,7 @@
       </c>
       <c r="H178" s="24"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="24" t="s">
         <v>2031</v>
       </c>
@@ -25221,7 +25279,7 @@
       </c>
       <c r="H179" s="24"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="24" t="s">
         <v>2033</v>
       </c>
@@ -25245,7 +25303,7 @@
       </c>
       <c r="H180" s="24"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="24" t="s">
         <v>2035</v>
       </c>
@@ -25269,7 +25327,7 @@
       </c>
       <c r="H181" s="24"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="24" t="s">
         <v>2037</v>
       </c>
@@ -25293,7 +25351,7 @@
       </c>
       <c r="H182" s="24"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="24" t="s">
         <v>2039</v>
       </c>
@@ -25317,7 +25375,7 @@
       </c>
       <c r="H183" s="24"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="24" t="s">
         <v>2041</v>
       </c>
@@ -25341,7 +25399,7 @@
       </c>
       <c r="H184" s="24"/>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="24" t="s">
         <v>2042</v>
       </c>
@@ -25365,7 +25423,7 @@
       </c>
       <c r="H185" s="24"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="24" t="s">
         <v>2046</v>
       </c>
@@ -25389,7 +25447,7 @@
       </c>
       <c r="H186" s="24"/>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="24" t="s">
         <v>2048</v>
       </c>
@@ -25413,7 +25471,7 @@
       </c>
       <c r="H187" s="24"/>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="24" t="s">
         <v>2052</v>
       </c>
@@ -25437,7 +25495,7 @@
       </c>
       <c r="H188" s="24"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="24" t="s">
         <v>2054</v>
       </c>
@@ -25461,7 +25519,7 @@
       </c>
       <c r="H189" s="24"/>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="24" t="s">
         <v>2056</v>
       </c>
@@ -25485,7 +25543,7 @@
       </c>
       <c r="H190" s="24"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="24" t="s">
         <v>2057</v>
       </c>
@@ -25509,7 +25567,7 @@
       </c>
       <c r="H191" s="24"/>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="24" t="s">
         <v>2058</v>
       </c>
@@ -25533,7 +25591,7 @@
       </c>
       <c r="H192" s="24"/>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="24" t="s">
         <v>2059</v>
       </c>
@@ -25557,7 +25615,7 @@
       </c>
       <c r="H193" s="24"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="24" t="s">
         <v>2062</v>
       </c>
@@ -25581,7 +25639,7 @@
       </c>
       <c r="H194" s="24"/>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="24" t="s">
         <v>2063</v>
       </c>
@@ -25605,7 +25663,7 @@
       </c>
       <c r="H195" s="24"/>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="24" t="s">
         <v>2064</v>
       </c>
@@ -25629,7 +25687,7 @@
       </c>
       <c r="H196" s="24"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="24" t="s">
         <v>2065</v>
       </c>
@@ -25653,7 +25711,7 @@
       </c>
       <c r="H197" s="24"/>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="24" t="s">
         <v>2066</v>
       </c>
@@ -25677,7 +25735,7 @@
       </c>
       <c r="H198" s="24"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="24" t="s">
         <v>2067</v>
       </c>
@@ -25701,7 +25759,7 @@
       </c>
       <c r="H199" s="24"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="24" t="s">
         <v>2068</v>
       </c>
@@ -25725,7 +25783,7 @@
       </c>
       <c r="H200" s="24"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="24" t="s">
         <v>2069</v>
       </c>
@@ -25749,7 +25807,7 @@
       </c>
       <c r="H201" s="24"/>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="24" t="s">
         <v>2070</v>
       </c>
@@ -25773,7 +25831,7 @@
       </c>
       <c r="H202" s="24"/>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="24" t="s">
         <v>2074</v>
       </c>
@@ -25797,7 +25855,7 @@
       </c>
       <c r="H203" s="24"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="24" t="s">
         <v>2076</v>
       </c>
@@ -25821,7 +25879,7 @@
       </c>
       <c r="H204" s="24"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="24" t="s">
         <v>2078</v>
       </c>
@@ -25845,7 +25903,7 @@
       </c>
       <c r="H205" s="24"/>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="24" t="s">
         <v>2082</v>
       </c>
@@ -25869,7 +25927,7 @@
       </c>
       <c r="H206" s="24"/>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="24" t="s">
         <v>2084</v>
       </c>
@@ -25893,7 +25951,7 @@
       </c>
       <c r="H207" s="24"/>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="24" t="s">
         <v>2088</v>
       </c>
@@ -25917,7 +25975,7 @@
       </c>
       <c r="H208" s="24"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="24" t="s">
         <v>2092</v>
       </c>
@@ -25941,7 +25999,7 @@
       </c>
       <c r="H209" s="24"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="24" t="s">
         <v>2094</v>
       </c>
@@ -25965,7 +26023,7 @@
       </c>
       <c r="H210" s="24"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="24" t="s">
         <v>2095</v>
       </c>
@@ -25989,7 +26047,7 @@
       </c>
       <c r="H211" s="24"/>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="24" t="s">
         <v>2096</v>
       </c>
@@ -26013,7 +26071,7 @@
       </c>
       <c r="H212" s="24"/>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="24" t="s">
         <v>2097</v>
       </c>
@@ -26037,7 +26095,7 @@
       </c>
       <c r="H213" s="24"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="24" t="s">
         <v>2098</v>
       </c>
@@ -26061,7 +26119,7 @@
       </c>
       <c r="H214" s="24"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="24" t="s">
         <v>2099</v>
       </c>
@@ -26085,7 +26143,7 @@
       </c>
       <c r="H215" s="24"/>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="24" t="s">
         <v>2100</v>
       </c>
@@ -26109,7 +26167,7 @@
       </c>
       <c r="H216" s="24"/>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="24" t="s">
         <v>2101</v>
       </c>
@@ -26133,7 +26191,7 @@
       </c>
       <c r="H217" s="24"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="24" t="s">
         <v>2102</v>
       </c>
@@ -26157,7 +26215,7 @@
       </c>
       <c r="H218" s="24"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="24" t="s">
         <v>2103</v>
       </c>
@@ -26181,7 +26239,7 @@
       </c>
       <c r="H219" s="24"/>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="24" t="s">
         <v>2104</v>
       </c>
@@ -26205,7 +26263,7 @@
       </c>
       <c r="H220" s="24"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="24" t="s">
         <v>2108</v>
       </c>
@@ -26229,7 +26287,7 @@
       </c>
       <c r="H221" s="24"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="24" t="s">
         <v>2110</v>
       </c>
@@ -26253,7 +26311,7 @@
       </c>
       <c r="H222" s="24"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="24" t="s">
         <v>2113</v>
       </c>
@@ -26277,7 +26335,7 @@
       </c>
       <c r="H223" s="24"/>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="24" t="s">
         <v>2114</v>
       </c>
@@ -26301,7 +26359,7 @@
       </c>
       <c r="H224" s="24"/>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="24" t="s">
         <v>2118</v>
       </c>
@@ -26325,7 +26383,7 @@
       </c>
       <c r="H225" s="24"/>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="24" t="s">
         <v>2119</v>
       </c>
@@ -26349,7 +26407,7 @@
       </c>
       <c r="H226" s="24"/>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="24" t="s">
         <v>2121</v>
       </c>
@@ -26373,7 +26431,7 @@
       </c>
       <c r="H227" s="24"/>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="24" t="s">
         <v>2125</v>
       </c>
@@ -26397,7 +26455,7 @@
       </c>
       <c r="H228" s="24"/>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="24" t="s">
         <v>2127</v>
       </c>
@@ -26421,7 +26479,7 @@
       </c>
       <c r="H229" s="24"/>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="24" t="s">
         <v>2130</v>
       </c>
@@ -26445,7 +26503,7 @@
       </c>
       <c r="H230" s="24"/>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="24" t="s">
         <v>2131</v>
       </c>
@@ -26469,7 +26527,7 @@
       </c>
       <c r="H231" s="24"/>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="24" t="s">
         <v>2132</v>
       </c>
@@ -26493,7 +26551,7 @@
       </c>
       <c r="H232" s="24"/>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="24" t="s">
         <v>2133</v>
       </c>
@@ -26517,7 +26575,7 @@
       </c>
       <c r="H233" s="24"/>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="24" t="s">
         <v>2134</v>
       </c>
@@ -26541,7 +26599,7 @@
       </c>
       <c r="H234" s="24"/>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="24" t="s">
         <v>2135</v>
       </c>
@@ -26565,7 +26623,7 @@
       </c>
       <c r="H235" s="24"/>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="24" t="s">
         <v>2136</v>
       </c>
@@ -26589,7 +26647,7 @@
       </c>
       <c r="H236" s="24"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="24" t="s">
         <v>2137</v>
       </c>
@@ -26613,7 +26671,7 @@
       </c>
       <c r="H237" s="24"/>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="24" t="s">
         <v>2141</v>
       </c>
@@ -26637,7 +26695,7 @@
       </c>
       <c r="H238" s="24"/>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="24" t="s">
         <v>2143</v>
       </c>
@@ -26661,7 +26719,7 @@
       </c>
       <c r="H239" s="24"/>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="24" t="s">
         <v>2146</v>
       </c>
@@ -26685,7 +26743,7 @@
       </c>
       <c r="H240" s="24"/>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="24" t="s">
         <v>2147</v>
       </c>
@@ -26709,7 +26767,7 @@
       </c>
       <c r="H241" s="24"/>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="24" t="s">
         <v>2148</v>
       </c>
@@ -26733,7 +26791,7 @@
       </c>
       <c r="H242" s="24"/>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="24" t="s">
         <v>2149</v>
       </c>
@@ -26757,7 +26815,7 @@
       </c>
       <c r="H243" s="24"/>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="24" t="s">
         <v>2150</v>
       </c>
@@ -26781,7 +26839,7 @@
       </c>
       <c r="H244" s="24"/>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="24" t="s">
         <v>2151</v>
       </c>
@@ -26805,7 +26863,7 @@
       </c>
       <c r="H245" s="24"/>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="24" t="s">
         <v>2152</v>
       </c>
@@ -26829,7 +26887,7 @@
       </c>
       <c r="H246" s="24"/>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="24" t="s">
         <v>2153</v>
       </c>
@@ -26853,7 +26911,7 @@
       </c>
       <c r="H247" s="24"/>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="24" t="s">
         <v>2154</v>
       </c>
@@ -26877,7 +26935,7 @@
       </c>
       <c r="H248" s="24"/>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="24" t="s">
         <v>2158</v>
       </c>
@@ -26901,7 +26959,7 @@
       </c>
       <c r="H249" s="24"/>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="24" t="s">
         <v>2161</v>
       </c>
@@ -26925,7 +26983,7 @@
       </c>
       <c r="H250" s="24"/>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="24" t="s">
         <v>2162</v>
       </c>
@@ -26949,7 +27007,7 @@
       </c>
       <c r="H251" s="24"/>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="24" t="s">
         <v>2166</v>
       </c>
@@ -26973,7 +27031,7 @@
       </c>
       <c r="H252" s="24"/>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="24" t="s">
         <v>2168</v>
       </c>
@@ -26997,7 +27055,7 @@
       </c>
       <c r="H253" s="24"/>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="24" t="s">
         <v>2170</v>
       </c>
@@ -27021,7 +27079,7 @@
       </c>
       <c r="H254" s="24"/>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="24" t="s">
         <v>2172</v>
       </c>
@@ -27045,7 +27103,7 @@
       </c>
       <c r="H255" s="24"/>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="24" t="s">
         <v>2174</v>
       </c>
@@ -27069,7 +27127,7 @@
       </c>
       <c r="H256" s="24"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="24" t="s">
         <v>2176</v>
       </c>
@@ -27093,7 +27151,7 @@
       </c>
       <c r="H257" s="24"/>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="24" t="s">
         <v>2178</v>
       </c>
@@ -27117,7 +27175,7 @@
       </c>
       <c r="H258" s="24"/>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="24" t="s">
         <v>2180</v>
       </c>
@@ -27141,7 +27199,7 @@
       </c>
       <c r="H259" s="24"/>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="24" t="s">
         <v>2182</v>
       </c>
@@ -27165,7 +27223,7 @@
       </c>
       <c r="H260" s="24"/>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="24" t="s">
         <v>2183</v>
       </c>
@@ -27189,7 +27247,7 @@
       </c>
       <c r="H261" s="24"/>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="24" t="s">
         <v>2185</v>
       </c>
@@ -27213,7 +27271,7 @@
       </c>
       <c r="H262" s="24"/>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="24" t="s">
         <v>2187</v>
       </c>
@@ -27237,7 +27295,7 @@
       </c>
       <c r="H263" s="24"/>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="24" t="s">
         <v>2189</v>
       </c>
@@ -27261,7 +27319,7 @@
       </c>
       <c r="H264" s="24"/>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="24" t="s">
         <v>2193</v>
       </c>
@@ -27285,7 +27343,7 @@
       </c>
       <c r="H265" s="24"/>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="24" t="s">
         <v>2195</v>
       </c>
@@ -27309,7 +27367,7 @@
       </c>
       <c r="H266" s="24"/>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="24" t="s">
         <v>2200</v>
       </c>
@@ -27333,7 +27391,7 @@
       </c>
       <c r="H267" s="24"/>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="24" t="s">
         <v>2202</v>
       </c>
@@ -27357,7 +27415,7 @@
       </c>
       <c r="H268" s="24"/>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="24" t="s">
         <v>2206</v>
       </c>
@@ -27381,7 +27439,7 @@
       </c>
       <c r="H269" s="24"/>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="24" t="s">
         <v>2207</v>
       </c>
@@ -27405,7 +27463,7 @@
       </c>
       <c r="H270" s="24"/>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="24" t="s">
         <v>2208</v>
       </c>
@@ -27429,7 +27487,7 @@
       </c>
       <c r="H271" s="24"/>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="24" t="s">
         <v>2212</v>
       </c>
@@ -27453,7 +27511,7 @@
       </c>
       <c r="H272" s="24"/>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="24" t="s">
         <v>2214</v>
       </c>
@@ -27477,7 +27535,7 @@
       </c>
       <c r="H273" s="24"/>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="24" t="s">
         <v>2217</v>
       </c>
@@ -27501,7 +27559,7 @@
       </c>
       <c r="H274" s="24"/>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="24" t="s">
         <v>2221</v>
       </c>
@@ -27525,7 +27583,7 @@
       </c>
       <c r="H275" s="24"/>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="24" t="s">
         <v>2223</v>
       </c>
@@ -27549,7 +27607,7 @@
       </c>
       <c r="H276" s="24"/>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="24" t="s">
         <v>2225</v>
       </c>
@@ -27573,7 +27631,7 @@
       </c>
       <c r="H277" s="24"/>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="24" t="s">
         <v>2227</v>
       </c>
@@ -27597,7 +27655,7 @@
       </c>
       <c r="H278" s="24"/>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="24" t="s">
         <v>2229</v>
       </c>
@@ -27621,7 +27679,7 @@
       </c>
       <c r="H279" s="24"/>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="24" t="s">
         <v>2231</v>
       </c>
@@ -27645,7 +27703,7 @@
       </c>
       <c r="H280" s="24"/>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="24" t="s">
         <v>2233</v>
       </c>
@@ -27669,7 +27727,7 @@
       </c>
       <c r="H281" s="24"/>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="24" t="s">
         <v>2235</v>
       </c>
@@ -27693,7 +27751,7 @@
       </c>
       <c r="H282" s="24"/>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="24" t="s">
         <v>2237</v>
       </c>
@@ -27717,7 +27775,7 @@
       </c>
       <c r="H283" s="24"/>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="24" t="s">
         <v>2239</v>
       </c>
@@ -27741,7 +27799,7 @@
       </c>
       <c r="H284" s="24"/>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="24" t="s">
         <v>2241</v>
       </c>
@@ -27765,7 +27823,7 @@
       </c>
       <c r="H285" s="24"/>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="24" t="s">
         <v>2243</v>
       </c>
@@ -27789,7 +27847,7 @@
       </c>
       <c r="H286" s="24"/>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="24" t="s">
         <v>2245</v>
       </c>
@@ -27813,7 +27871,7 @@
       </c>
       <c r="H287" s="24"/>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="24" t="s">
         <v>2247</v>
       </c>
@@ -27837,7 +27895,7 @@
       </c>
       <c r="H288" s="24"/>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="24" t="s">
         <v>2249</v>
       </c>
@@ -27861,7 +27919,7 @@
       </c>
       <c r="H289" s="24"/>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="24" t="s">
         <v>2251</v>
       </c>
@@ -27885,7 +27943,7 @@
       </c>
       <c r="H290" s="24"/>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="24" t="s">
         <v>2253</v>
       </c>
@@ -27909,7 +27967,7 @@
       </c>
       <c r="H291" s="24"/>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="24" t="s">
         <v>2255</v>
       </c>
@@ -27933,7 +27991,7 @@
       </c>
       <c r="H292" s="24"/>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="24" t="s">
         <v>2257</v>
       </c>
@@ -27957,7 +28015,7 @@
       </c>
       <c r="H293" s="24"/>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="24" t="s">
         <v>2259</v>
       </c>
@@ -27981,7 +28039,7 @@
       </c>
       <c r="H294" s="24"/>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="24" t="s">
         <v>2261</v>
       </c>
@@ -28005,7 +28063,7 @@
       </c>
       <c r="H295" s="24"/>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="24" t="s">
         <v>2263</v>
       </c>
@@ -28029,7 +28087,7 @@
       </c>
       <c r="H296" s="24"/>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="24" t="s">
         <v>2265</v>
       </c>
@@ -28053,7 +28111,7 @@
       </c>
       <c r="H297" s="24"/>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="24" t="s">
         <v>2267</v>
       </c>
@@ -28077,7 +28135,7 @@
       </c>
       <c r="H298" s="24"/>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="24" t="s">
         <v>2269</v>
       </c>
@@ -28101,7 +28159,7 @@
       </c>
       <c r="H299" s="24"/>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="24" t="s">
         <v>2271</v>
       </c>
@@ -28125,7 +28183,7 @@
       </c>
       <c r="H300" s="24"/>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="24" t="s">
         <v>2273</v>
       </c>
@@ -28149,7 +28207,7 @@
       </c>
       <c r="H301" s="24"/>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="24" t="s">
         <v>2275</v>
       </c>
@@ -28173,7 +28231,7 @@
       </c>
       <c r="H302" s="24"/>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="24" t="s">
         <v>2277</v>
       </c>
@@ -28197,7 +28255,7 @@
       </c>
       <c r="H303" s="24"/>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="24" t="s">
         <v>2279</v>
       </c>
@@ -28221,7 +28279,7 @@
       </c>
       <c r="H304" s="24"/>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="24" t="s">
         <v>2281</v>
       </c>
@@ -28245,7 +28303,7 @@
       </c>
       <c r="H305" s="24"/>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="24" t="s">
         <v>2283</v>
       </c>
@@ -28269,7 +28327,7 @@
       </c>
       <c r="H306" s="24"/>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="24" t="s">
         <v>2285</v>
       </c>
@@ -28293,7 +28351,7 @@
       </c>
       <c r="H307" s="24"/>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="24" t="s">
         <v>2289</v>
       </c>
@@ -28317,7 +28375,7 @@
       </c>
       <c r="H308" s="24"/>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="24" t="s">
         <v>2291</v>
       </c>
@@ -28341,7 +28399,7 @@
       </c>
       <c r="H309" s="24"/>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="24" t="s">
         <v>2294</v>
       </c>
@@ -28365,7 +28423,7 @@
       </c>
       <c r="H310" s="24"/>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="24" t="s">
         <v>2295</v>
       </c>
@@ -28389,7 +28447,7 @@
       </c>
       <c r="H311" s="24"/>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="24" t="s">
         <v>2296</v>
       </c>
@@ -28413,7 +28471,7 @@
       </c>
       <c r="H312" s="24"/>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="24" t="s">
         <v>2297</v>
       </c>
@@ -28437,7 +28495,7 @@
       </c>
       <c r="H313" s="24"/>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="24" t="s">
         <v>2300</v>
       </c>
@@ -28461,7 +28519,7 @@
       </c>
       <c r="H314" s="24"/>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="24" t="s">
         <v>2301</v>
       </c>
@@ -28485,7 +28543,7 @@
       </c>
       <c r="H315" s="24"/>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="24" t="s">
         <v>2302</v>
       </c>
@@ -28509,7 +28567,7 @@
       </c>
       <c r="H316" s="24"/>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="24" t="s">
         <v>2303</v>
       </c>
@@ -28533,7 +28591,7 @@
       </c>
       <c r="H317" s="24"/>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="24" t="s">
         <v>2306</v>
       </c>
@@ -28557,7 +28615,7 @@
       </c>
       <c r="H318" s="24"/>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="24" t="s">
         <v>2311</v>
       </c>
@@ -28581,7 +28639,7 @@
       </c>
       <c r="H319" s="24"/>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="24" t="s">
         <v>2312</v>
       </c>
@@ -28605,7 +28663,7 @@
       </c>
       <c r="H320" s="24"/>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="24" t="s">
         <v>2313</v>
       </c>
@@ -28629,7 +28687,7 @@
       </c>
       <c r="H321" s="24"/>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="24" t="s">
         <v>2317</v>
       </c>
@@ -28653,7 +28711,7 @@
       </c>
       <c r="H322" s="24"/>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="24" t="s">
         <v>2318</v>
       </c>
@@ -28677,7 +28735,7 @@
       </c>
       <c r="H323" s="24"/>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="24" t="s">
         <v>2319</v>
       </c>
@@ -28701,7 +28759,7 @@
       </c>
       <c r="H324" s="24"/>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="24" t="s">
         <v>2323</v>
       </c>
@@ -28725,7 +28783,7 @@
       </c>
       <c r="H325" s="24"/>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="24" t="s">
         <v>2325</v>
       </c>
@@ -28749,7 +28807,7 @@
       </c>
       <c r="H326" s="24"/>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="24" t="s">
         <v>2329</v>
       </c>
@@ -28773,7 +28831,7 @@
       </c>
       <c r="H327" s="24"/>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="24" t="s">
         <v>2331</v>
       </c>
@@ -28797,7 +28855,7 @@
       </c>
       <c r="H328" s="24"/>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="24" t="s">
         <v>2334</v>
       </c>
@@ -28821,7 +28879,7 @@
       </c>
       <c r="H329" s="24"/>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="24" t="s">
         <v>2335</v>
       </c>
@@ -28845,7 +28903,7 @@
       </c>
       <c r="H330" s="24"/>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="24" t="s">
         <v>2338</v>
       </c>
@@ -28869,7 +28927,7 @@
       </c>
       <c r="H331" s="24"/>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="24" t="s">
         <v>2339</v>
       </c>
@@ -28893,7 +28951,7 @@
       </c>
       <c r="H332" s="24"/>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="24" t="s">
         <v>2340</v>
       </c>
@@ -28917,7 +28975,7 @@
       </c>
       <c r="H333" s="24"/>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="24" t="s">
         <v>2341</v>
       </c>
@@ -28941,7 +28999,7 @@
       </c>
       <c r="H334" s="24"/>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="24" t="s">
         <v>2342</v>
       </c>
@@ -28965,7 +29023,7 @@
       </c>
       <c r="H335" s="24"/>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="24" t="s">
         <v>2343</v>
       </c>
@@ -28989,7 +29047,7 @@
       </c>
       <c r="H336" s="24"/>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="24" t="s">
         <v>2345</v>
       </c>
@@ -29013,7 +29071,7 @@
       </c>
       <c r="H337" s="24"/>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="24" t="s">
         <v>2346</v>
       </c>
@@ -29037,7 +29095,7 @@
       </c>
       <c r="H338" s="24"/>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="24" t="s">
         <v>2349</v>
       </c>
@@ -29061,7 +29119,7 @@
       </c>
       <c r="H339" s="24"/>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="24" t="s">
         <v>2353</v>
       </c>
@@ -29085,7 +29143,7 @@
       </c>
       <c r="H340" s="24"/>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="24" t="s">
         <v>2355</v>
       </c>
@@ -29109,7 +29167,7 @@
       </c>
       <c r="H341" s="24"/>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="24" t="s">
         <v>2357</v>
       </c>
@@ -29133,7 +29191,7 @@
       </c>
       <c r="H342" s="24"/>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="24" t="s">
         <v>2359</v>
       </c>
@@ -29157,7 +29215,7 @@
       </c>
       <c r="H343" s="24"/>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="24"/>
       <c r="B344" s="24"/>
       <c r="C344" s="24"/>
@@ -29167,7 +29225,7 @@
       <c r="G344" s="24"/>
       <c r="H344" s="24"/>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="24"/>
       <c r="B345" s="24"/>
       <c r="C345" s="24"/>
@@ -29177,7 +29235,7 @@
       <c r="G345" s="24"/>
       <c r="H345" s="24"/>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="24"/>
       <c r="B346" s="24"/>
       <c r="C346" s="24"/>
@@ -29187,7 +29245,7 @@
       <c r="G346" s="24"/>
       <c r="H346" s="24"/>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="24"/>
       <c r="B347" s="24"/>
       <c r="C347" s="24"/>
@@ -29197,7 +29255,7 @@
       <c r="G347" s="24"/>
       <c r="H347" s="24"/>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="24"/>
       <c r="B348" s="24"/>
       <c r="C348" s="24"/>
@@ -29207,7 +29265,7 @@
       <c r="G348" s="24"/>
       <c r="H348" s="24"/>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="24"/>
       <c r="B349" s="24"/>
       <c r="C349" s="24"/>
@@ -29217,7 +29275,7 @@
       <c r="G349" s="24"/>
       <c r="H349" s="24"/>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="24"/>
       <c r="B350" s="24"/>
       <c r="C350" s="24"/>
@@ -29227,7 +29285,7 @@
       <c r="G350" s="24"/>
       <c r="H350" s="24"/>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="24"/>
       <c r="B351" s="24"/>
       <c r="C351" s="24"/>
@@ -29237,7 +29295,7 @@
       <c r="G351" s="24"/>
       <c r="H351" s="24"/>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="24"/>
       <c r="B352" s="24"/>
       <c r="C352" s="24"/>
@@ -29247,7 +29305,7 @@
       <c r="G352" s="24"/>
       <c r="H352" s="24"/>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="24"/>
       <c r="B353" s="24"/>
       <c r="C353" s="24"/>
@@ -29257,7 +29315,7 @@
       <c r="G353" s="24"/>
       <c r="H353" s="24"/>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="24"/>
       <c r="B354" s="24"/>
       <c r="C354" s="24"/>
@@ -29267,7 +29325,7 @@
       <c r="G354" s="24"/>
       <c r="H354" s="24"/>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="24"/>
       <c r="B355" s="24"/>
       <c r="C355" s="24"/>
@@ -29277,7 +29335,7 @@
       <c r="G355" s="24"/>
       <c r="H355" s="24"/>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="24"/>
       <c r="B356" s="24"/>
       <c r="C356" s="24"/>
@@ -29287,7 +29345,7 @@
       <c r="G356" s="24"/>
       <c r="H356" s="24"/>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="24"/>
       <c r="B357" s="24"/>
       <c r="C357" s="24"/>
@@ -29297,7 +29355,7 @@
       <c r="G357" s="24"/>
       <c r="H357" s="24"/>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="24"/>
       <c r="B358" s="24"/>
       <c r="C358" s="24"/>
@@ -29307,7 +29365,7 @@
       <c r="G358" s="24"/>
       <c r="H358" s="24"/>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="24"/>
       <c r="B359" s="24"/>
       <c r="C359" s="24"/>
@@ -29343,12 +29401,12 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1683</v>
       </c>
@@ -29356,7 +29414,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.23150023150023127</v>
       </c>
@@ -29364,7 +29422,7 @@
         <v>4.80216094668338E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.25565430762641977</v>
       </c>
@@ -29372,7 +29430,7 @@
         <v>5.1279095794896099E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.2798083837526083</v>
       </c>
@@ -29380,7 +29438,7 @@
         <v>5.4536582073694002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.30396245987879683</v>
       </c>
@@ -29388,7 +29446,7 @@
         <v>5.7794068623162403E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.3281165360049853</v>
       </c>
@@ -29396,7 +29454,7 @@
         <v>6.1051555097405897E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.35227061213117383</v>
       </c>
@@ -29404,7 +29462,7 @@
         <v>6.4309041342097695E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.37642468825736231</v>
       </c>
@@ -29412,7 +29470,7 @@
         <v>6.7566527977114396E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.40057876438355089</v>
       </c>
@@ -29420,7 +29478,7 @@
         <v>7.0824014388571298E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.42473284050973936</v>
       </c>
@@ -29428,7 +29486,7 @@
         <v>7.4081500727977902E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.44888691663592784</v>
       </c>
@@ -29436,7 +29494,7 @@
         <v>7.7338987212619698E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.47304099276211642</v>
       </c>
@@ -29444,7 +29502,7 @@
         <v>7.1369379203945404E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.49719506888830489</v>
       </c>
@@ -29452,7 +29510,7 @@
         <v>7.1798619725921904E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.52134914501449336</v>
       </c>
@@ -29460,7 +29518,7 @@
         <v>7.49230321278242E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.54550322114068195</v>
       </c>
@@ -29468,7 +29526,7 @@
         <v>5.0668055975341205E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.56965729726687042</v>
       </c>
@@ -29476,7 +29534,7 @@
         <v>4.97318110081096E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.59381137339305889</v>
       </c>
@@ -29498,7 +29556,7 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
@@ -29508,12 +29566,12 @@
     <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>148</v>
       </c>
@@ -29536,7 +29594,7 @@
         <v>0.77136000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>149</v>
       </c>
@@ -29559,7 +29617,7 @@
         <v>8.5461999999999996E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -29585,7 +29643,7 @@
         <v>-3.9196</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -29611,7 +29669,7 @@
         <v>11.1426</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -29637,7 +29695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -29663,7 +29721,7 @@
         <v>9.8425999999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -29689,7 +29747,7 @@
         <v>-37.256900000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -29715,7 +29773,7 @@
         <v>-13.571099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>139</v>
       </c>
@@ -29741,7 +29799,7 @@
         <v>-0.20852000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>140</v>
       </c>
@@ -29767,7 +29825,7 @@
         <v>-8.5461999999999996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>141</v>
       </c>
@@ -29793,7 +29851,7 @@
         <v>69.770799999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>142</v>
       </c>
@@ -29819,7 +29877,7 @@
         <v>0.43826999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -29859,7 +29917,7 @@
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
@@ -29869,12 +29927,12 @@
     <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -29909,7 +29967,7 @@
         <v>1.5366</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -29944,7 +30002,7 @@
         <v>8.6453000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -29979,7 +30037,7 @@
         <v>-3.9649999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -30014,7 +30072,7 @@
         <v>9.0296000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -30049,7 +30107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -30084,7 +30142,7 @@
         <v>9.7134</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -30119,7 +30177,7 @@
         <v>-34.518300000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -30154,7 +30212,7 @@
         <v>-11.4931</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>139</v>
       </c>
@@ -30189,7 +30247,7 @@
         <v>-0.21093999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>140</v>
       </c>
@@ -30224,7 +30282,7 @@
         <v>-8.6453000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>141</v>
       </c>
@@ -30259,7 +30317,7 @@
         <v>64.924099999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>142</v>
       </c>
@@ -30294,7 +30352,7 @@
         <v>0.44335000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -30329,7 +30387,7 @@
         <v>-23.912315529598999</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -30364,52 +30422,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18" s="19"/>
     </row>
-    <row r="19" spans="5:5">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="5:5">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E21" s="19"/>
     </row>
-    <row r="22" spans="5:5">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="5:5">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="5:5">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E24" s="19"/>
     </row>
-    <row r="25" spans="5:5">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E25" s="19"/>
     </row>
-    <row r="26" spans="5:5">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="5:5">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="5:5">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E28" s="19"/>
     </row>
-    <row r="29" spans="5:5">
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E29" s="19"/>
     </row>
-    <row r="30" spans="5:5">
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="5:5">
+    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E31" s="19"/>
     </row>
-    <row r="32" spans="5:5">
+    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E32" s="19"/>
     </row>
-    <row r="33" spans="5:5">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33" s="19"/>
     </row>
   </sheetData>
@@ -30422,11 +30480,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA629B35-2757-48F7-9C36-0B4946EA8231}">
   <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+    <sheetView topLeftCell="A323" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="80.28515625" customWidth="1"/>
@@ -30435,7 +30493,7 @@
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1072</v>
       </c>
@@ -30452,7 +30510,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1146</v>
       </c>
@@ -30470,7 +30528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1147</v>
       </c>
@@ -30488,7 +30546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1148</v>
       </c>
@@ -30506,7 +30564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1149</v>
       </c>
@@ -30524,7 +30582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1150</v>
       </c>
@@ -30542,7 +30600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1151</v>
       </c>
@@ -30560,7 +30618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1152</v>
       </c>
@@ -30578,7 +30636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1153</v>
       </c>
@@ -30596,7 +30654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1154</v>
       </c>
@@ -30614,7 +30672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1155</v>
       </c>
@@ -30632,7 +30690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1156</v>
       </c>
@@ -30650,7 +30708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1157</v>
       </c>
@@ -30668,7 +30726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1158</v>
       </c>
@@ -30686,7 +30744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1159</v>
       </c>
@@ -30704,7 +30762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1160</v>
       </c>
@@ -30722,7 +30780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1161</v>
       </c>
@@ -30740,7 +30798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1162</v>
       </c>
@@ -30758,7 +30816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1163</v>
       </c>
@@ -30776,7 +30834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>218</v>
       </c>
@@ -30794,7 +30852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>222</v>
       </c>
@@ -30812,7 +30870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>294</v>
       </c>
@@ -30830,7 +30888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1164</v>
       </c>
@@ -30848,7 +30906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1165</v>
       </c>
@@ -30866,7 +30924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>193</v>
       </c>
@@ -30884,7 +30942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>203</v>
       </c>
@@ -30902,7 +30960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>214</v>
       </c>
@@ -30920,7 +30978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>233</v>
       </c>
@@ -30938,7 +30996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>303</v>
       </c>
@@ -30956,7 +31014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>305</v>
       </c>
@@ -30974,7 +31032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1166</v>
       </c>
@@ -30992,7 +31050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>190</v>
       </c>
@@ -31010,7 +31068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>197</v>
       </c>
@@ -31028,7 +31086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>207</v>
       </c>
@@ -31046,7 +31104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>301</v>
       </c>
@@ -31064,7 +31122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>336</v>
       </c>
@@ -31082,7 +31140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1167</v>
       </c>
@@ -31100,7 +31158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -31118,7 +31176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>213</v>
       </c>
@@ -31136,7 +31194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>264</v>
       </c>
@@ -31154,7 +31212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>297</v>
       </c>
@@ -31172,7 +31230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>288</v>
       </c>
@@ -31190,7 +31248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>199</v>
       </c>
@@ -31208,7 +31266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>290</v>
       </c>
@@ -31226,7 +31284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>284</v>
       </c>
@@ -31244,7 +31302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>187</v>
       </c>
@@ -31262,7 +31320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>241</v>
       </c>
@@ -31280,7 +31338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1168</v>
       </c>
@@ -31298,7 +31356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1169</v>
       </c>
@@ -31316,7 +31374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1170</v>
       </c>
@@ -31334,7 +31392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1171</v>
       </c>
@@ -31352,7 +31410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>256</v>
       </c>
@@ -31370,7 +31428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>225</v>
       </c>
@@ -31388,7 +31446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>252</v>
       </c>
@@ -31406,7 +31464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>249</v>
       </c>
@@ -31424,7 +31482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>237</v>
       </c>
@@ -31442,7 +31500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1172</v>
       </c>
@@ -31460,7 +31518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1173</v>
       </c>
@@ -31478,7 +31536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>260</v>
       </c>
@@ -31496,7 +31554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1174</v>
       </c>
@@ -31514,7 +31572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1175</v>
       </c>
@@ -31532,7 +31590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1176</v>
       </c>
@@ -31550,7 +31608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1177</v>
       </c>
@@ -31568,7 +31626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1178</v>
       </c>
@@ -31586,7 +31644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1179</v>
       </c>
@@ -31604,7 +31662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1180</v>
       </c>
@@ -31622,7 +31680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1181</v>
       </c>
@@ -31640,7 +31698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1182</v>
       </c>
@@ -31658,7 +31716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1183</v>
       </c>
@@ -31676,7 +31734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1184</v>
       </c>
@@ -31694,7 +31752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1185</v>
       </c>
@@ -31712,7 +31770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1186</v>
       </c>
@@ -31730,7 +31788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1187</v>
       </c>
@@ -31748,7 +31806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1188</v>
       </c>
@@ -31766,7 +31824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1189</v>
       </c>
@@ -31784,7 +31842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1190</v>
       </c>
@@ -31802,7 +31860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1191</v>
       </c>
@@ -31820,7 +31878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1192</v>
       </c>
@@ -31838,7 +31896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1193</v>
       </c>
@@ -31856,7 +31914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1194</v>
       </c>
@@ -31874,7 +31932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1195</v>
       </c>
@@ -31892,7 +31950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1196</v>
       </c>
@@ -31910,7 +31968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1197</v>
       </c>
@@ -31928,7 +31986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1198</v>
       </c>
@@ -31946,7 +32004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1199</v>
       </c>
@@ -31964,7 +32022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1200</v>
       </c>
@@ -31982,7 +32040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1201</v>
       </c>
@@ -32000,7 +32058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1202</v>
       </c>
@@ -32018,7 +32076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1203</v>
       </c>
@@ -32036,7 +32094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1204</v>
       </c>
@@ -32054,7 +32112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1205</v>
       </c>
@@ -32072,7 +32130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1206</v>
       </c>
@@ -32090,7 +32148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1207</v>
       </c>
@@ -32108,7 +32166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1208</v>
       </c>
@@ -32126,7 +32184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1209</v>
       </c>
@@ -32144,7 +32202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1210</v>
       </c>
@@ -32162,7 +32220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1211</v>
       </c>
@@ -32180,7 +32238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1212</v>
       </c>
@@ -32198,7 +32256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1213</v>
       </c>
@@ -32216,7 +32274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1214</v>
       </c>
@@ -32234,7 +32292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1215</v>
       </c>
@@ -32252,7 +32310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1216</v>
       </c>
@@ -32270,7 +32328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1217</v>
       </c>
@@ -32288,7 +32346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1218</v>
       </c>
@@ -32306,7 +32364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1219</v>
       </c>
@@ -32324,7 +32382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1220</v>
       </c>
@@ -32342,7 +32400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1221</v>
       </c>
@@ -32360,7 +32418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1222</v>
       </c>
@@ -32378,7 +32436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1223</v>
       </c>
@@ -32396,7 +32454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1224</v>
       </c>
@@ -32414,7 +32472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1225</v>
       </c>
@@ -32432,7 +32490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1226</v>
       </c>
@@ -32450,7 +32508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1227</v>
       </c>
@@ -32468,7 +32526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1228</v>
       </c>
@@ -32486,7 +32544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1229</v>
       </c>
@@ -32504,7 +32562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1230</v>
       </c>
@@ -32522,7 +32580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1231</v>
       </c>
@@ -32540,7 +32598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1232</v>
       </c>
@@ -32558,7 +32616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1233</v>
       </c>
@@ -32576,7 +32634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1234</v>
       </c>
@@ -32594,7 +32652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1235</v>
       </c>
@@ -32612,7 +32670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1236</v>
       </c>
@@ -32630,7 +32688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1237</v>
       </c>
@@ -32648,7 +32706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1238</v>
       </c>
@@ -32666,7 +32724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1239</v>
       </c>
@@ -32684,7 +32742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1240</v>
       </c>
@@ -32702,7 +32760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1241</v>
       </c>
@@ -32720,7 +32778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1242</v>
       </c>
@@ -32738,7 +32796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1243</v>
       </c>
@@ -32756,7 +32814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1244</v>
       </c>
@@ -32774,7 +32832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1245</v>
       </c>
@@ -32792,7 +32850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1246</v>
       </c>
@@ -32810,7 +32868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1247</v>
       </c>
@@ -32828,7 +32886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1248</v>
       </c>
@@ -32846,7 +32904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1249</v>
       </c>
@@ -32864,7 +32922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1250</v>
       </c>
@@ -32882,7 +32940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1251</v>
       </c>
@@ -32900,7 +32958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1252</v>
       </c>
@@ -32918,7 +32976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1253</v>
       </c>
@@ -32936,7 +32994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1254</v>
       </c>
@@ -32954,7 +33012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1255</v>
       </c>
@@ -32972,7 +33030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1256</v>
       </c>
@@ -32990,7 +33048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1257</v>
       </c>
@@ -33008,7 +33066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1258</v>
       </c>
@@ -33026,7 +33084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1259</v>
       </c>
@@ -33044,7 +33102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1260</v>
       </c>
@@ -33062,7 +33120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1261</v>
       </c>
@@ -33080,7 +33138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1262</v>
       </c>
@@ -33098,7 +33156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1263</v>
       </c>
@@ -33116,7 +33174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1264</v>
       </c>
@@ -33134,7 +33192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1265</v>
       </c>
@@ -33152,7 +33210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1266</v>
       </c>
@@ -33170,7 +33228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1267</v>
       </c>
@@ -33188,7 +33246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1268</v>
       </c>
@@ -33206,7 +33264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1269</v>
       </c>
@@ -33224,7 +33282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1270</v>
       </c>
@@ -33242,7 +33300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1271</v>
       </c>
@@ -33260,7 +33318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1272</v>
       </c>
@@ -33278,7 +33336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1273</v>
       </c>
@@ -33296,7 +33354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1274</v>
       </c>
@@ -33314,7 +33372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1275</v>
       </c>
@@ -33332,7 +33390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1276</v>
       </c>
@@ -33350,7 +33408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1277</v>
       </c>
@@ -33368,7 +33426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1278</v>
       </c>
@@ -33386,7 +33444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1279</v>
       </c>
@@ -33404,7 +33462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1280</v>
       </c>
@@ -33422,7 +33480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1281</v>
       </c>
@@ -33440,7 +33498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1282</v>
       </c>
@@ -33458,7 +33516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1283</v>
       </c>
@@ -33476,7 +33534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1284</v>
       </c>
@@ -33494,7 +33552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1285</v>
       </c>
@@ -33512,7 +33570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1286</v>
       </c>
@@ -33530,7 +33588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1287</v>
       </c>
@@ -33548,7 +33606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1288</v>
       </c>
@@ -33566,7 +33624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1289</v>
       </c>
@@ -33584,7 +33642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1290</v>
       </c>
@@ -33602,7 +33660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1291</v>
       </c>
@@ -33620,7 +33678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1292</v>
       </c>
@@ -33638,7 +33696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1293</v>
       </c>
@@ -33656,7 +33714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1294</v>
       </c>
@@ -33674,7 +33732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1295</v>
       </c>
@@ -33692,7 +33750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1296</v>
       </c>
@@ -33710,7 +33768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1297</v>
       </c>
@@ -33728,7 +33786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1298</v>
       </c>
@@ -33746,7 +33804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1299</v>
       </c>
@@ -33764,7 +33822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1300</v>
       </c>
@@ -33782,7 +33840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1301</v>
       </c>
@@ -33800,7 +33858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1302</v>
       </c>
@@ -33818,7 +33876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1303</v>
       </c>
@@ -33836,7 +33894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1304</v>
       </c>
@@ -33854,7 +33912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1305</v>
       </c>
@@ -33872,7 +33930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1306</v>
       </c>
@@ -33890,7 +33948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1307</v>
       </c>
@@ -33908,7 +33966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1308</v>
       </c>
@@ -33926,7 +33984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1309</v>
       </c>
@@ -33944,7 +34002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1310</v>
       </c>
@@ -33962,7 +34020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1311</v>
       </c>
@@ -33980,7 +34038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1312</v>
       </c>
@@ -33998,7 +34056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1313</v>
       </c>
@@ -34016,7 +34074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1314</v>
       </c>
@@ -34034,7 +34092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1315</v>
       </c>
@@ -34052,7 +34110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1316</v>
       </c>
@@ -34070,7 +34128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1317</v>
       </c>
@@ -34088,7 +34146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1318</v>
       </c>
@@ -34106,7 +34164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1319</v>
       </c>
@@ -34124,7 +34182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1320</v>
       </c>
@@ -34142,7 +34200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1321</v>
       </c>
@@ -34160,7 +34218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1322</v>
       </c>
@@ -34178,7 +34236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1323</v>
       </c>
@@ -34196,7 +34254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1324</v>
       </c>
@@ -34214,7 +34272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1325</v>
       </c>
@@ -34232,7 +34290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1326</v>
       </c>
@@ -34250,7 +34308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1327</v>
       </c>
@@ -34268,7 +34326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1328</v>
       </c>
@@ -34286,7 +34344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1329</v>
       </c>
@@ -34304,7 +34362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1330</v>
       </c>
@@ -34322,7 +34380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1331</v>
       </c>
@@ -34340,7 +34398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1332</v>
       </c>
@@ -34358,7 +34416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1333</v>
       </c>
@@ -34376,7 +34434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1334</v>
       </c>
@@ -34394,7 +34452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1335</v>
       </c>
@@ -34412,7 +34470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1336</v>
       </c>
@@ -34430,7 +34488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1337</v>
       </c>
@@ -34448,7 +34506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1338</v>
       </c>
@@ -34466,7 +34524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1339</v>
       </c>
@@ -34484,7 +34542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1340</v>
       </c>
@@ -34502,7 +34560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1341</v>
       </c>
@@ -34520,7 +34578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1342</v>
       </c>
@@ -34538,7 +34596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1343</v>
       </c>
@@ -34556,7 +34614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1344</v>
       </c>
@@ -34574,7 +34632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1345</v>
       </c>
@@ -34592,7 +34650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1346</v>
       </c>
@@ -34610,7 +34668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1347</v>
       </c>
@@ -34628,7 +34686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1348</v>
       </c>
@@ -34646,7 +34704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1349</v>
       </c>
@@ -34664,7 +34722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1350</v>
       </c>
@@ -34682,7 +34740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1351</v>
       </c>
@@ -34700,7 +34758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1352</v>
       </c>
@@ -34718,7 +34776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1353</v>
       </c>
@@ -34736,7 +34794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1354</v>
       </c>
@@ -34754,7 +34812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1355</v>
       </c>
@@ -34772,7 +34830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1356</v>
       </c>
@@ -34790,7 +34848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1357</v>
       </c>
@@ -34808,7 +34866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1358</v>
       </c>
@@ -34826,7 +34884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1359</v>
       </c>
@@ -34844,7 +34902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1360</v>
       </c>
@@ -34862,7 +34920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1361</v>
       </c>
@@ -34880,7 +34938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1362</v>
       </c>
@@ -34898,7 +34956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1363</v>
       </c>
@@ -34916,7 +34974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1364</v>
       </c>
@@ -34934,7 +34992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1365</v>
       </c>
@@ -34952,7 +35010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1366</v>
       </c>
@@ -34970,7 +35028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1367</v>
       </c>
@@ -34988,7 +35046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1368</v>
       </c>
@@ -35006,7 +35064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1369</v>
       </c>
@@ -35024,7 +35082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1370</v>
       </c>
@@ -35042,7 +35100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1371</v>
       </c>
@@ -35060,7 +35118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1372</v>
       </c>
@@ -35078,7 +35136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1373</v>
       </c>
@@ -35096,7 +35154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1374</v>
       </c>
@@ -35114,7 +35172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1375</v>
       </c>
@@ -35132,7 +35190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1376</v>
       </c>
@@ -35150,7 +35208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1377</v>
       </c>
@@ -35168,7 +35226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1378</v>
       </c>
@@ -35186,7 +35244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1379</v>
       </c>
@@ -35204,7 +35262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1380</v>
       </c>
@@ -35222,7 +35280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1381</v>
       </c>
@@ -35240,7 +35298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1382</v>
       </c>
@@ -35258,7 +35316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1383</v>
       </c>
@@ -35276,7 +35334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1384</v>
       </c>
@@ -35294,7 +35352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1385</v>
       </c>
@@ -35312,7 +35370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1386</v>
       </c>
@@ -35330,7 +35388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1387</v>
       </c>
@@ -35348,7 +35406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1388</v>
       </c>
@@ -35366,7 +35424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1389</v>
       </c>
@@ -35384,7 +35442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1390</v>
       </c>
@@ -35402,7 +35460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1391</v>
       </c>
@@ -35420,7 +35478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1392</v>
       </c>
@@ -35438,7 +35496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="20" t="s">
         <v>1075</v>
       </c>
@@ -35449,7 +35507,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1076</v>
       </c>
@@ -35460,7 +35518,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1077</v>
       </c>
@@ -35471,7 +35529,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1078</v>
       </c>
@@ -35482,7 +35540,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1079</v>
       </c>
@@ -35493,7 +35551,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1080</v>
       </c>
@@ -35504,7 +35562,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1081</v>
       </c>
@@ -35515,7 +35573,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1082</v>
       </c>
@@ -35526,7 +35584,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1083</v>
       </c>
@@ -35537,7 +35595,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1084</v>
       </c>
@@ -35548,7 +35606,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1085</v>
       </c>
@@ -35559,7 +35617,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1086</v>
       </c>
@@ -35570,7 +35628,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1087</v>
       </c>
@@ -35581,7 +35639,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1088</v>
       </c>
@@ -35592,7 +35650,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1089</v>
       </c>
@@ -35603,7 +35661,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1090</v>
       </c>
@@ -35614,7 +35672,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1091</v>
       </c>
@@ -35625,7 +35683,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1092</v>
       </c>
@@ -35636,7 +35694,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1093</v>
       </c>
@@ -35647,7 +35705,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1094</v>
       </c>
@@ -35658,7 +35716,7 @@
         <v>37.259538391246998</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>224</v>
       </c>
@@ -35669,7 +35727,7 @@
         <v>23.570006411903901</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
         <v>221</v>
       </c>
@@ -35680,7 +35738,7 @@
         <v>23.570006411903901</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>221</v>
       </c>
@@ -35691,7 +35749,7 @@
         <v>8.3361576667160104</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>232</v>
       </c>
@@ -35702,7 +35760,7 @@
         <v>8.3361576667160104</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>196</v>
       </c>
@@ -35713,7 +35771,7 @@
         <v>8.3361576667160104</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1095</v>
       </c>
@@ -35724,7 +35782,7 @@
         <v>8.3361576667160104</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1096</v>
       </c>
@@ -35735,7 +35793,7 @@
         <v>8.3361576667160104</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1097</v>
       </c>
@@ -35746,7 +35804,7 @@
         <v>8.3361576667160104</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>192</v>
       </c>
@@ -35757,7 +35815,7 @@
         <v>8.3361576667160104</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>212</v>
       </c>
@@ -35768,7 +35826,7 @@
         <v>8.3361576667159802</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>266</v>
       </c>
@@ -35779,7 +35837,7 @@
         <v>8.3361576667159802</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1098</v>
       </c>
@@ -35790,7 +35848,7 @@
         <v>8.3078045578858593</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1099</v>
       </c>
@@ -35801,7 +35859,7 @@
         <v>8.3078045578858593</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1100</v>
       </c>
@@ -35812,7 +35870,7 @@
         <v>8.3055026910018093</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1101</v>
       </c>
@@ -35823,7 +35881,7 @@
         <v>8.3055026910018093</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>244</v>
       </c>
@@ -35834,7 +35892,7 @@
         <v>6.5895141029773301</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1102</v>
       </c>
@@ -35845,7 +35903,7 @@
         <v>6.5895141029773301</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1103</v>
       </c>
@@ -35856,7 +35914,7 @@
         <v>6.5895141029773301</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1104</v>
       </c>
@@ -35867,7 +35925,7 @@
         <v>6.3879103274026097</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1105</v>
       </c>
@@ -35878,7 +35936,7 @@
         <v>6.3879103274026097</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1106</v>
       </c>
@@ -35889,7 +35947,7 @@
         <v>6.3879103274026097</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1107</v>
       </c>
@@ -35900,7 +35958,7 @@
         <v>6.3879103274026097</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1108</v>
       </c>
@@ -35911,7 +35969,7 @@
         <v>4.1610705012346099</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1109</v>
       </c>
@@ -35922,7 +35980,7 @@
         <v>2.8663957832289002</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1110</v>
       </c>
@@ -35933,7 +35991,7 @@
         <v>2.8663957832289002</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1111</v>
       </c>
@@ -35944,7 +36002,7 @@
         <v>2.69563499860869</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>259</v>
       </c>
@@ -35955,7 +36013,7 @@
         <v>1.5200771413065499</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>255</v>
       </c>
@@ -35966,7 +36024,7 @@
         <v>1.43120263014339</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>228</v>
       </c>
@@ -35977,7 +36035,7 @@
         <v>1.43120263014339</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>251</v>
       </c>
@@ -35988,7 +36046,7 @@
         <v>1.1105322590645801</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
         <v>240</v>
       </c>
@@ -35999,7 +36057,7 @@
         <v>1.1105322590645801</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1112</v>
       </c>
@@ -36010,7 +36068,7 @@
         <v>1.10642064740061</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1113</v>
       </c>
@@ -36021,7 +36079,7 @@
         <v>1.10642064740061</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>263</v>
       </c>
@@ -36032,7 +36090,7 @@
         <v>1.0317783570102199</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1114</v>
       </c>
@@ -36043,7 +36101,7 @@
         <v>1.00141665435174</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1115</v>
       </c>
@@ -36054,7 +36112,7 @@
         <v>1.00141665435174</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1116</v>
       </c>
@@ -36065,7 +36123,7 @@
         <v>1.00141665435174</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1117</v>
       </c>
@@ -36076,7 +36134,7 @@
         <v>1.00141665435174</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1118</v>
       </c>
@@ -36087,7 +36145,7 @@
         <v>1.00141665435174</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1119</v>
       </c>
@@ -36098,7 +36156,7 @@
         <v>1.00141665435174</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1120</v>
       </c>
@@ -36109,7 +36167,7 @@
         <v>1.00141665435174</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1121</v>
       </c>
@@ -36120,7 +36178,7 @@
         <v>1.00141665435174</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1122</v>
       </c>
@@ -36131,7 +36189,7 @@
         <v>1.00141665435174</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1123</v>
       </c>
@@ -36142,7 +36200,7 @@
         <v>1.00141665435174</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1124</v>
       </c>
@@ -36153,7 +36211,7 @@
         <v>1.00141665435174</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1125</v>
       </c>
@@ -36164,7 +36222,7 @@
         <v>0.40637195101645701</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1126</v>
       </c>
@@ -36175,7 +36233,7 @@
         <v>0.40241649638941901</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1127</v>
       </c>
@@ -36186,7 +36244,7 @@
         <v>0.19741766022030499</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1128</v>
       </c>
@@ -36197,7 +36255,7 @@
         <v>0.19741766022030499</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1129</v>
       </c>
@@ -36208,7 +36266,7 @@
         <v>0.19741766022030499</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1130</v>
       </c>
@@ -36219,7 +36277,7 @@
         <v>9.9401734614570705E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1131</v>
       </c>
@@ -36230,7 +36288,7 @@
         <v>9.9401734614570705E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1132</v>
       </c>
@@ -36241,7 +36299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1133</v>
       </c>
@@ -36252,7 +36310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1134</v>
       </c>
@@ -36263,7 +36321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1135</v>
       </c>
@@ -36274,7 +36332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1136</v>
       </c>
@@ -36285,7 +36343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1137</v>
       </c>
@@ -36296,7 +36354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1138</v>
       </c>
@@ -36307,7 +36365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1139</v>
       </c>
@@ -36318,7 +36376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1140</v>
       </c>
@@ -36329,7 +36387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1141</v>
       </c>
@@ -36357,7 +36415,7 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" hidden="1" customWidth="1"/>
@@ -36369,7 +36427,7 @@
     <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>347</v>
       </c>
@@ -36381,7 +36439,7 @@
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -36407,7 +36465,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.9740000000000002</v>
       </c>
@@ -36427,7 +36485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>22.002099999999999</v>
       </c>
@@ -36456,7 +36514,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>11.9725</v>
       </c>
@@ -36482,7 +36540,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>10.6181</v>
       </c>
@@ -36511,7 +36569,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>10.6181</v>
       </c>
@@ -36540,7 +36598,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>4.6917999999999997</v>
       </c>
@@ -36569,7 +36627,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>4.6917999999999997</v>
       </c>
@@ -36595,7 +36653,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2.2439</v>
       </c>
@@ -36621,7 +36679,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2.1192000000000002</v>
       </c>
@@ -36647,7 +36705,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1.5269999999999999</v>
       </c>
@@ -36673,7 +36731,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>0.98002</v>
       </c>
@@ -36699,7 +36757,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>0.98002</v>
       </c>
@@ -36725,7 +36783,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>0.92413000000000001</v>
       </c>
@@ -36748,7 +36806,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>0.92413000000000001</v>
       </c>
@@ -36774,7 +36832,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>0.59077999999999997</v>
       </c>
@@ -36800,7 +36858,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>0.57874000000000003</v>
       </c>
@@ -36826,7 +36884,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2.375E-2</v>
       </c>
@@ -36852,7 +36910,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2.375E-2</v>
       </c>
@@ -36878,7 +36936,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>2.375E-2</v>
       </c>
@@ -36904,7 +36962,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>2.375E-2</v>
       </c>
@@ -36927,7 +36985,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>1.4844E-2</v>
       </c>
@@ -36953,7 +37011,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>1.4844E-2</v>
       </c>
@@ -36979,7 +37037,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>1.4844E-2</v>
       </c>
@@ -37005,7 +37063,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>1.4844E-2</v>
       </c>
@@ -37031,7 +37089,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>1.4844E-2</v>
       </c>
@@ -37054,7 +37112,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4.8680000000000003</v>
       </c>
@@ -37071,7 +37129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18.482800000000001</v>
       </c>
@@ -37088,7 +37146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.8680000000000003</v>
       </c>
@@ -37105,7 +37163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.375E-2</v>
       </c>
@@ -37122,7 +37180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5.0346000000000002</v>
       </c>
@@ -37139,7 +37197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8.9061999999999995E-3</v>
       </c>
@@ -37156,7 +37214,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5.9373999999999998E-3</v>
       </c>
@@ -37173,7 +37231,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1.4844E-2</v>
       </c>
@@ -37190,7 +37248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.375E-2</v>
       </c>
@@ -37207,7 +37265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.1875E-2</v>
       </c>
@@ -37224,7 +37282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>1.4844E-2</v>
       </c>
@@ -37247,7 +37305,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>1.1875E-2</v>
       </c>
@@ -37273,7 +37331,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>8.9245000000000001E-3</v>
       </c>
@@ -37299,7 +37357,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>8.9061999999999995E-3</v>
       </c>
@@ -37322,7 +37380,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>8.9061999999999995E-3</v>
       </c>
@@ -37348,7 +37406,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>8.9061999999999995E-3</v>
       </c>
@@ -37376,7 +37434,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>8.9061999999999995E-3</v>
       </c>
@@ -37402,7 +37460,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>8.9061999999999995E-3</v>
       </c>
@@ -37425,7 +37483,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>5.9496999999999996E-3</v>
       </c>
@@ -37451,7 +37509,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8.9061999999999995E-3</v>
       </c>
@@ -37468,7 +37526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5.9373999999999998E-3</v>
       </c>
@@ -37485,7 +37543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1.4844E-2</v>
       </c>
@@ -37502,7 +37560,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.57974999999999999</v>
       </c>
@@ -37519,7 +37577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2.2441</v>
       </c>
@@ -37536,7 +37594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2.778</v>
       </c>
@@ -37553,7 +37611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4.4396000000000004</v>
       </c>
@@ -37570,7 +37628,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2.8249</v>
       </c>
@@ -37587,7 +37645,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2.7098</v>
       </c>
@@ -37604,7 +37662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2.7098</v>
       </c>
@@ -37621,7 +37679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2.7098</v>
       </c>
@@ -37638,7 +37696,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.92413000000000001</v>
       </c>
@@ -37655,7 +37713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.98002</v>
       </c>
@@ -37672,7 +37730,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.98002</v>
       </c>
@@ -37692,7 +37750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>5.9373999999999998E-3</v>
       </c>
@@ -37718,7 +37776,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -37744,4 +37802,206 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DA5A3D-0039-4D2F-B352-5008A365E0F5}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2467</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2476</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D13">
+    <sortCondition ref="B2:B13"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/ecYaliGEM/output/enzymeUsage vs FSEOF.xlsx
+++ b/ecYaliGEM/output/enzymeUsage vs FSEOF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jusabe\Documents\GECKO\ecYaliGEM\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E934EB0-DBB3-4160-AD79-29F2E6040BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BC95B1-D1B7-42FF-A58A-080565860B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3650" yWindow="14290" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3650" yWindow="14290" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ecYali_Exp" sheetId="1" r:id="rId1"/>
@@ -30480,8 +30480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA629B35-2757-48F7-9C36-0B4946EA8231}">
   <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37808,7 +37808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DA5A3D-0039-4D2F-B352-5008A365E0F5}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
